--- a/process/data/policy_review/Urban policy checklist_1000 Cities Challenge_version 1.0.1.xlsx
+++ b/process/data/policy_review/Urban policy checklist_1000 Cities Challenge_version 1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/data/policy_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{6584D590-C07C-4F62-BFAE-96514BB22693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE19FB30-D246-4EC7-93E7-F944561AEBEB}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{6584D590-C07C-4F62-BFAE-96514BB22693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E04B985-D556-4F83-8B31-521652B07492}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -43,20 +43,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="335">
+  <si>
+    <t>1000 Cities Challenge Urban Policy Checklist Instructions</t>
+  </si>
+  <si>
+    <t>Public policies are essential for supporting the design and creation of healthy and sustainable cities and neighbourhoods. The Policy Checklist assesses the presence and quality of recommended policies for your city. The checklist can then be used to generate a city scorecard and report, which summarise policy indicators for your city, and are designed to be tools to assist in advocating for change.</t>
+  </si>
   <si>
     <t>Step 1: identify person(s) to collect the policy data.</t>
   </si>
   <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>Identify person(s) with good local knowledge of the policy context to collect policy data for your city. For example:</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>Academic or Masters/PhD student in urban or transport planning</t>
+  </si>
+  <si>
+    <t>City or metropolitan government staff</t>
+  </si>
+  <si>
+    <t>Local healthy cities or sustainability advocacy organisation staff</t>
+  </si>
+  <si>
+    <t>The 1000 Cities Challenge team will:</t>
+  </si>
+  <si>
+    <t>provide training and support for policy data collection</t>
+  </si>
+  <si>
+    <t>identify Country/regional coordinators who can provide advice as mentors.</t>
+  </si>
+  <si>
     <t>Step 2: Identify relevant policy documents, and find and enter policy details into the Policy Checklist</t>
   </si>
   <si>
+    <t xml:space="preserve">The checklist is available for download from https://www.healthysustainablecities.org/ </t>
+  </si>
+  <si>
+    <t>The checklist can be applied to any jurisdiction (e.g. local, metropolitan, regional government), as relevant for your city. However, the Global Observatory of Healthy and Sustainable Cities aims to include the whole metropolitan area of cities, wherever possible. Therefore, we recommend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applying the checklist to the level(s) of government responsible for the whole metropolitan area, and/or which affect the majority of the metropolitan population. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you are only assessing a smaller administrative unit/jurisdiction within a larger metropolitan area, please clearly indicate this is the 'Collection details' tab, and explain why. </t>
+  </si>
+  <si>
+    <t>Fill in the 'Collection details' tab for your city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data collection will require identification, retrieval, and assessment of the content of multiple policy/legislation documents. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter relevant policy details into the 'Policy Checklist' tab, translating into English language, if required. If multiple levels of government are relevant for your city, include policies for all relevant levels of government in the same checklist. There may be more than one policy document relevant to each measure and/or principle. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If more than one document is applicable for a particular principle, list multiple policies by inserting and completing new rows below that principle, as required. To do this, right click the number of the row </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>below</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> where you require a new row and select 'Insert'. </t>
+    </r>
+  </si>
+  <si>
+    <t>To view more details on how to insert a new row, click here</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Other information or notes' column: </t>
+  </si>
+  <si>
+    <t>If a principle is not relevant to your city context, please note this here, and explain why.</t>
+  </si>
+  <si>
+    <t>If 'Unclear' was selected, please provide more detail explaining this choice.</t>
+  </si>
+  <si>
+    <t>Please include any other relevant information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Step 3: Work with local validation team </t>
   </si>
   <si>
+    <t xml:space="preserve">Email your completed checklist to Melanie Lowe (melanie.lowe@rmit.edu.au) and info@healthysustainablecities.org. </t>
+  </si>
+  <si>
+    <t>You will then be notified of the local data validation process.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Step 4: Use the 1000 Cities Challenge tools to generate a scorecard/report </t>
   </si>
   <si>
+    <t>A report will be uploaded to the Global Observatory of Healthy and Sustainable Cities website</t>
+  </si>
+  <si>
+    <t>Use the indicator findings and report for local advocacy or further research</t>
+  </si>
+  <si>
+    <t>1000 Cities Challenge - Urban Policy Checklist Collection Details</t>
+  </si>
+  <si>
     <t>Name of person(s) completing checklist:</t>
   </si>
   <si>
@@ -69,24 +177,225 @@
     <t>City, region and country the checklist has been used for:</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Names of level(s) of government policy included the policy checklist</t>
+  </si>
+  <si>
+    <t>(complete as required):</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Other / comments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(Please indicate if you are only assessing a smaller administrative unit/jurisdiction within a larger metropolitan area and explain why, as per instructions Step 2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Environmental disasters likely to be faced by the city over next 5-10 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (select all that apply): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe storms </t>
+  </si>
+  <si>
+    <t>Floods</t>
+  </si>
+  <si>
+    <t>Bushfires/wildfires</t>
+  </si>
+  <si>
     <t>Heatwaves</t>
   </si>
   <si>
     <t>Extreme cold</t>
   </si>
   <si>
+    <t>Typhoons</t>
+  </si>
+  <si>
+    <t>Hurricanes</t>
+  </si>
+  <si>
+    <t>Cyclones</t>
+  </si>
+  <si>
+    <t>Earthquakes</t>
+  </si>
+  <si>
     <t>Other (please specify)</t>
   </si>
   <si>
+    <t>1000 Cities Challenge - Urban Policy Checklist</t>
+  </si>
+  <si>
+    <t>Policy name</t>
+  </si>
+  <si>
+    <t>Level of government</t>
+  </si>
+  <si>
+    <t>Adoption date</t>
+  </si>
+  <si>
+    <t>URL and/or citation</t>
+  </si>
+  <si>
+    <t>Copy of relevant text</t>
+  </si>
+  <si>
+    <t>Is the policy mandatory / legally required?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Does the policy include a measurable target?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.e. a measurable quantitative standard or threshold that may include a delivery timeframe</t>
+    </r>
+  </si>
+  <si>
+    <t>If yes, is the measurable target an evidence-informed threshold?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other information or notes </t>
+  </si>
+  <si>
+    <t>version 1.0.1</t>
+  </si>
+  <si>
     <t>Indicators</t>
   </si>
   <si>
+    <t>Measures [2]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Principles
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Is policy aligned with principles of healthy and sustainable cities?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+  </si>
+  <si>
+    <t>Please select from drop down menu</t>
+  </si>
+  <si>
+    <t>Year (yyyy)</t>
+  </si>
+  <si>
+    <t>Page-"quote"</t>
+  </si>
+  <si>
+    <t>No, Yes or Unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If ‘Yes’, copy the relevant target(s) here </t>
+  </si>
+  <si>
+    <t>Cite established evidence or standards (click green cells for example guidance)</t>
+  </si>
+  <si>
+    <t>Please note any other relevant information. Note if a policy is not applicable to your city context, and explain why.   If 'Unclear' was selected, please provide more detail explaining this choice.</t>
+  </si>
+  <si>
     <t>EXAMPLE</t>
   </si>
   <si>
+    <t>The 30-Year Plan for Greater Adelaide</t>
+  </si>
+  <si>
+    <t>https://livingadelaide.sa.gov.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p44-“Increase average gross densities of development within activity centres and transit corridor catchments from 15 to 25 dwellings per hectare to 35 dwellings per hectare.” </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Increase average gross densities of development within activity centres and transit corridor catchments from 15 to 25 dwellings per hectare to 35 dwellings per hectare</t>
+  </si>
+  <si>
+    <t>At least 25 dwellings per ha is required to support walkability. The target is above this minimum.</t>
+  </si>
+  <si>
+    <t>There are other density targets for particular land use zones, but these differ across the city, depending on how the zoning is applied.</t>
+  </si>
+  <si>
+    <t>If more than one policy applicable for an item, please insert another row, like this:</t>
+  </si>
+  <si>
+    <t>Renewal SA, 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5-“We need to move from car dependent, low density suburbs to walkable, mixed use medium density communities that are close to transport, jobs and services.” </t>
+  </si>
+  <si>
     <t>CITY PLANNING REQUIREMENTS</t>
   </si>
   <si>
@@ -114,6 +423,9 @@
     <t>Urban and/or transport policy explicitly aims for integrated city planning</t>
   </si>
   <si>
+    <t>Yes, explicit mention of:</t>
+  </si>
+  <si>
     <t>Aim for integrated city planning across multiple government departments/agencies</t>
   </si>
   <si>
@@ -135,39 +447,36 @@
     <t>Transport policies to limit air pollution</t>
   </si>
   <si>
+    <t>Limiting motorised vehicle traffic in residential/school areas to reduce air pollution exposure</t>
+  </si>
+  <si>
     <t>see also:</t>
   </si>
   <si>
-    <t>Limiting motorised vehicle traffic in residential/school areas to reduce air pollution exposure</t>
+    <t xml:space="preserve">Limiting motorised vehicle traffic or speeds in areas of high air pollution </t>
   </si>
   <si>
     <t>Demand Management for car parking restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Limiting motorised vehicle traffic or speeds in areas of high air pollution </t>
+    <t>Planning for low transport emissions zones</t>
+  </si>
+  <si>
+    <t>Policies related to vehicle age/type, or fuel type to reduce pollution</t>
+  </si>
+  <si>
+    <t>Policies actively encouraging transition to electric vehicles and/or discouraging fossil fuel vehicles</t>
   </si>
   <si>
     <t>Desirability for traffic safety requirements</t>
   </si>
   <si>
-    <t>Planning for low transport emissions zones</t>
-  </si>
-  <si>
-    <t>Policies related to vehicle age/type, or fuel type to reduce pollution</t>
-  </si>
-  <si>
-    <t>Policies actively encouraging transition to electric vehicles and/or discouraging fossil fuel vehicles</t>
-  </si>
-  <si>
     <t>Promotion of car sharing</t>
   </si>
   <si>
     <t>Congestion charging</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy that could increase transport-related air pollution </t>
   </si>
   <si>
@@ -192,6 +501,9 @@
     <t>Housing design guidelines to reduce exposure to air pollution</t>
   </si>
   <si>
+    <t>Land use policy that could increase air pollution exposure</t>
+  </si>
+  <si>
     <t>Transport infrastructure investment by mode</t>
   </si>
   <si>
@@ -213,6 +525,9 @@
     <t>Decreasing or maintaining relatively low investment in active/public transport relative to car transport</t>
   </si>
   <si>
+    <t>Disaster mitigation</t>
+  </si>
+  <si>
     <t>City planning contributes to adaptation and mitigating  the effects of climate change</t>
   </si>
   <si>
@@ -222,30 +537,48 @@
     <t>New development banned or significantly restricted in areas of high disaster risk (e.g., flood, fire or coastal inundation prone areas)</t>
   </si>
   <si>
+    <t>Buildings and/or built environment features required to be designed to reduce impacts of …</t>
+  </si>
+  <si>
     <t>See also:</t>
   </si>
   <si>
     <t>… flooding</t>
   </si>
   <si>
+    <t>Desirability for ‘tree canopy and urban greening requirements'</t>
+  </si>
+  <si>
     <t>… bushfire/wildfire</t>
   </si>
   <si>
+    <t>… severe storms</t>
+  </si>
+  <si>
+    <t>… urban heat</t>
+  </si>
+  <si>
     <t>Air pollution for measures related to reducing transport emissions</t>
   </si>
   <si>
-    <t>… urban heat</t>
-  </si>
-  <si>
     <t>… extreme cold</t>
   </si>
   <si>
+    <t>Walkability Policies for sustainable transport</t>
+  </si>
+  <si>
     <t>Development allowed in areas of high disaster risk (e.g., flood, fire or coastal inundation prone areas)</t>
   </si>
   <si>
+    <t>Public Transport Policies for sustainable transport</t>
+  </si>
+  <si>
     <t>Urban infrastructure and transport inadequately planned/controlled to withstand climate change-related disaster risks</t>
   </si>
   <si>
+    <t>HEALTHY AND WALKABLE CITY POLICIES</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
@@ -342,9 +675,18 @@
     <t xml:space="preserve">Mixture of local destinations for daily living </t>
   </si>
   <si>
+    <t>Policy to create 20-minute/15-minute neighbourhoods or cities</t>
+  </si>
+  <si>
+    <t>Policy to create liveable cities/neighbourhoods</t>
+  </si>
+  <si>
     <t>Transit oriented development requirements or incentives</t>
   </si>
   <si>
+    <t>Policy to create complete neighbourhoods with housing and services</t>
+  </si>
+  <si>
     <t>Smaller sized shops/stores on main streets required, rather than ‘big box’ shopping centres/malls</t>
   </si>
   <si>
@@ -369,6 +711,9 @@
     <t>Destination proximity</t>
   </si>
   <si>
+    <t>Local destinations for healthy, walkable cities</t>
+  </si>
+  <si>
     <t>Requirements for distance to daily living destinations</t>
   </si>
   <si>
@@ -378,9 +723,45 @@
     <t>Requirements for nearby access to schools</t>
   </si>
   <si>
+    <t>Requirement for neighbourhoods/cities with short distances between routine activities</t>
+  </si>
+  <si>
+    <t>Design for minimum requirements for public open space</t>
+  </si>
+  <si>
+    <t>Distance to major/general food stores/schools requirements do not support walkable access</t>
+  </si>
+  <si>
     <t>Distance to public transport</t>
   </si>
   <si>
+    <t>Requirements for healthy food environments</t>
+  </si>
+  <si>
+    <t>Requirements for nearby access to fresh food stores</t>
+  </si>
+  <si>
+    <t>Requirements for provision of, or access to, community gardens</t>
+  </si>
+  <si>
+    <t>Restrictions on the density of fast food or 'junk' food stores</t>
+  </si>
+  <si>
+    <t>Bans/restrictions on locating fast food outlets near schools or other key land uses</t>
+  </si>
+  <si>
+    <t>Required ratio of healthy food stores to all food stores supports healthy food access</t>
+  </si>
+  <si>
+    <t>Requirements/provisions for location/density of fresh food stores are inadequate to ensure easy access</t>
+  </si>
+  <si>
+    <t>Requirements/restrictions on location/density of fast food outlets are inadequate to limit access</t>
+  </si>
+  <si>
+    <t>Required ratio of healthy food stores to all food stores does not prioritise healthy food access</t>
+  </si>
+  <si>
     <t>Desirability</t>
   </si>
   <si>
@@ -390,22 +771,70 @@
     <t>Tree canopy and urban greening requirements</t>
   </si>
   <si>
+    <t>Requirement to increase/maintain a high proportion of tree canopy cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement to increase/maintain a high level of vegetation/green infrastructure </t>
+  </si>
+  <si>
+    <t>Design for minimum requirements for public open space access</t>
+  </si>
+  <si>
+    <t>Requirement to increase/protect urban forests/plant new trees</t>
+  </si>
+  <si>
+    <t>Requirement to create/maintain green corridors</t>
+  </si>
+  <si>
     <t xml:space="preserve">Retention of trees/vegetation in new development sites </t>
   </si>
   <si>
+    <t>Desirability for urban biodiversity protection and promotion</t>
+  </si>
+  <si>
+    <t>Requirement to implement nature-based solutions</t>
+  </si>
+  <si>
+    <t>Policies/development controls discourage or work against increasing or protecting trees and urban greening</t>
+  </si>
+  <si>
+    <t>Urban biodiversity protection &amp; promotion</t>
+  </si>
+  <si>
+    <t>Requirement to increase/protect urban biodiversity/species diversity/habitat</t>
+  </si>
+  <si>
+    <t>Requirement to reduce habitat fragmentation or increase/maintain habitat connectivity</t>
+  </si>
+  <si>
+    <t>Desirability for tree canopy and urban greening requirements</t>
+  </si>
+  <si>
+    <t>Requirement to use biodiversity sensitive design</t>
+  </si>
+  <si>
+    <t>Policies/development controls discourage or work against increasing or protecting biodiversity/species diversity/habitat</t>
+  </si>
+  <si>
+    <t>Policies/development controls discourage or work against reducing habitat fragmentation/increasing habitat connectivity</t>
+  </si>
+  <si>
     <t>Traffic safety requirements</t>
   </si>
   <si>
     <t>Reduced vehicular speed limits</t>
   </si>
   <si>
+    <t xml:space="preserve">Intersection control measures </t>
+  </si>
+  <si>
     <t>Air Pollution</t>
   </si>
   <si>
-    <t xml:space="preserve">Intersection control measures </t>
-  </si>
-  <si>
     <t>Traffic calming measures</t>
+  </si>
+  <si>
+    <t>Design for pedestrian/cycling infrastructure provision requirements</t>
   </si>
   <si>
     <t>Planning for car-free streets</t>
@@ -453,6 +882,9 @@
     <t>Neighbourhoods are required to be designed so that buildings and streets overlook public open spaces</t>
   </si>
   <si>
+    <t>Appropriate levels and types of lighting are required in public spaces</t>
+  </si>
+  <si>
     <t>Buildings, landscaping and parks are required to be well maintained</t>
   </si>
   <si>
@@ -468,12 +900,18 @@
     <t>Street connectivity requirements</t>
   </si>
   <si>
+    <t>Ped-shed (ratio of straight line distance buffer to street network distance buffer[1]) requirements for street connectivity to support walking</t>
+  </si>
+  <si>
     <t>Required maximum size of street blocks creates connectivity that supports walking</t>
   </si>
   <si>
     <t xml:space="preserve">Required minimum number of intersections per area creates street connectivity that supports walking </t>
   </si>
   <si>
+    <t xml:space="preserve">Ped-shed ratio requirements do not promote good street connectivity </t>
+  </si>
+  <si>
     <t>Street block size requirement are too large for good street connectivity</t>
   </si>
   <si>
@@ -492,6 +930,9 @@
     <t>Establishment of pedestrianised zones</t>
   </si>
   <si>
+    <t>Establishment of weather-sensitive routes through the city (e.g., cool routes, wind tunnel prevention, snow melting etc.)</t>
+  </si>
+  <si>
     <t>Pedestrian infrastructure provision plans are unsafe or inadequate to support walkability</t>
   </si>
   <si>
@@ -504,15 +945,45 @@
     <t>Provision of safe bicycle crossings</t>
   </si>
   <si>
+    <t>End-of-trip parking and other facilities required</t>
+  </si>
+  <si>
     <t>Cycling infrastructure provision plans are unsafe or inadequate to encourage cycling</t>
   </si>
   <si>
     <t>Walking participation targets</t>
   </si>
   <si>
+    <t xml:space="preserve">Policy to increase or maintain high levels of walking for transport (e.g., % mode share) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy to increase or maintain high levels of walking for recreation </t>
+  </si>
+  <si>
+    <t>Policy to decrease or maintain low levels of walking for transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy to decrease or maintain low levels of walking for recreation </t>
+  </si>
+  <si>
     <t>Cycling participation targets</t>
   </si>
   <si>
+    <t xml:space="preserve">Policy to increase or maintain high levels of cycling for transport (e.g., % mode share) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy to increase or maintain high levels of recreational cycling participation </t>
+  </si>
+  <si>
+    <t>Policy to decrease or maintain low levels of cycling for transport</t>
+  </si>
+  <si>
+    <t>Policy to decrease or maintain low levels of recreational cycling participation</t>
+  </si>
+  <si>
+    <t>PUBLIC OPEN SPACE POLICIES</t>
+  </si>
+  <si>
     <t>Minimum requirements for public open space access</t>
   </si>
   <si>
@@ -561,6 +1032,21 @@
     <t>Requirements for public transport access to employment and services</t>
   </si>
   <si>
+    <t>Requirement for public transport trip durations to employment/key services that facilitate access</t>
+  </si>
+  <si>
+    <t>Requirement for public transport trip distances to employment/key services that facilitate access</t>
+  </si>
+  <si>
+    <t>Requirmement to co-locate public transport and employment/services.</t>
+  </si>
+  <si>
+    <t>Diversity for mixture of local destinations for daily living, including the transit oriented development principle</t>
+  </si>
+  <si>
+    <t>Requirement for public transport trip times or distances to employment/key services that do not promote easy access</t>
+  </si>
+  <si>
     <t>Distribution of employment</t>
   </si>
   <si>
@@ -570,12 +1056,27 @@
     <t>Employment distribution requirements</t>
   </si>
   <si>
+    <t>Requirment for decentralised employment</t>
+  </si>
+  <si>
+    <t>Requirement for employment/activity centres to be distributed throughout the city</t>
+  </si>
+  <si>
     <t>Required minimum number of jobs per area/zone</t>
   </si>
   <si>
+    <t>Requirement for centralised employment/activity centres</t>
+  </si>
+  <si>
+    <t>Requirement for too few jobs per area/zone</t>
+  </si>
+  <si>
     <t>Requirements for ratio of jobs to housing</t>
   </si>
   <si>
+    <t>Requirement for balanced ratio of jobs to housing, to support well-distributed employment across the city</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio of jobs to housing does not support well-distributed employment </t>
   </si>
   <si>
@@ -588,16 +1089,175 @@
     <t>Minimum distance/nearby access requirements to public transport stops, to promote walking</t>
   </si>
   <si>
+    <t>Requirement for access to frequent public transport</t>
+  </si>
+  <si>
+    <t>Requirement for access to rapid/high speed public transport</t>
+  </si>
+  <si>
     <t>Adding new routes for underserved populations.</t>
   </si>
   <si>
     <t xml:space="preserve">Distance to public transport stop requirements do not support walkable access </t>
   </si>
   <si>
+    <t>Requirement for low public transport frequencies that discourage usage</t>
+  </si>
+  <si>
+    <t>Requirement for low public transport speeds that discourage usage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Targets for public transport use </t>
   </si>
   <si>
+    <t>Requirement to increase or maintain high level of public transport use (e.g., % mode share)</t>
+  </si>
+  <si>
+    <t>Requirement to decrease or maintain low levels of public transport use</t>
+  </si>
+  <si>
     <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giles-Corti B, Vernez Moudon A, Reis R, et al. City planning and population health: a global challenge. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Lancet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2016; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>388</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10062): 2912-24. https://doi.org/10.1016/s0140-6736(16)30066-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lowe M, Adlakha D, Sallis JF, et al. City planning policies to support health and sustainability: an international comparison of policy indicators for 25 cities. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Lancet Global Health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6): e882 - e94. https://doi.org/10.1016/S2214-109X(22)00069-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cerin E, Sallis JF, Salvo D, et al. Determining thresholds for spatial urban design and transport features to create healthy and sustainable cities: findings from the IPEN Adult study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Lancet Global Health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2022; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6): e895 - e906. https://doi.org/10.1016/S2214-109X(22)00068-7</t>
+    </r>
   </si>
   <si>
     <r>
@@ -624,327 +1284,6 @@
       </rPr>
       <t xml:space="preserve"> 2023; https://www.healthyactivebydesign.com.au/resources/healthy-active-by-design-master-checklists </t>
     </r>
-  </si>
-  <si>
-    <t>Measures [2]</t>
-  </si>
-  <si>
-    <t>Land use policy that could increase air pollution exposure</t>
-  </si>
-  <si>
-    <t>Disaster mitigation</t>
-  </si>
-  <si>
-    <t>Public Transport Policies for sustainable transport</t>
-  </si>
-  <si>
-    <t>Walkability Policies for sustainable transport</t>
-  </si>
-  <si>
-    <t>PUBLIC OPEN SPACE POLICIES</t>
-  </si>
-  <si>
-    <t>Urban biodiversity protection &amp; promotion</t>
-  </si>
-  <si>
-    <t>Policies/development controls discourage or work against increasing or protecting trees and urban greening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ped-shed ratio requirements do not promote good street connectivity </t>
-  </si>
-  <si>
-    <t>End-of-trip parking and other facilities required</t>
-  </si>
-  <si>
-    <t>Ped-shed (ratio of straight line distance buffer to street network distance buffer[1]) requirements for street connectivity to support walking</t>
-  </si>
-  <si>
-    <t>Desirability for ‘tree canopy and urban greening requirements'</t>
-  </si>
-  <si>
-    <t>Design for minimum requirements for public open space</t>
-  </si>
-  <si>
-    <t>Design for minimum requirements for public open space access</t>
-  </si>
-  <si>
-    <t>Desirability for urban biodiversity protection and promotion</t>
-  </si>
-  <si>
-    <t>Desirability for tree canopy and urban greening requirements</t>
-  </si>
-  <si>
-    <t>Design for pedestrian/cycling infrastructure provision requirements</t>
-  </si>
-  <si>
-    <t>Diversity for mixture of local destinations for daily living, including the transit oriented development principle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If ‘Yes’, copy the relevant target(s) here </t>
-  </si>
-  <si>
-    <t>Yes, explicit mention of:</t>
-  </si>
-  <si>
-    <t>Requirement to increase/protect urban biodiversity/species diversity/habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement to increase/maintain a high level of vegetation/green infrastructure </t>
-  </si>
-  <si>
-    <t>Requirement to increase/maintain a high proportion of tree canopy cover</t>
-  </si>
-  <si>
-    <t>Requirement to increase/protect urban forests/plant new trees</t>
-  </si>
-  <si>
-    <t>Requirement to create/maintain green corridors</t>
-  </si>
-  <si>
-    <t>Requirement to implement nature-based solutions</t>
-  </si>
-  <si>
-    <t>Policies/development controls discourage or work against increasing or protecting biodiversity/species diversity/habitat</t>
-  </si>
-  <si>
-    <t>Requirement to use biodiversity sensitive design</t>
-  </si>
-  <si>
-    <t>Requirement to reduce habitat fragmentation or increase/maintain habitat connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy to increase or maintain high levels of walking for transport (e.g., % mode share) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy to increase or maintain high levels of walking for recreation </t>
-  </si>
-  <si>
-    <t>Policy to decrease or maintain low levels of walking for transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy to decrease or maintain low levels of walking for recreation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy to increase or maintain high levels of cycling for transport (e.g., % mode share) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy to increase or maintain high levels of recreational cycling participation </t>
-  </si>
-  <si>
-    <t>Policy to decrease or maintain low levels of cycling for transport</t>
-  </si>
-  <si>
-    <t>Policy to decrease or maintain low levels of recreational cycling participation</t>
-  </si>
-  <si>
-    <t>Requirement for public transport trip durations to employment/key services that facilitate access</t>
-  </si>
-  <si>
-    <t>Requirement for public transport trip distances to employment/key services that facilitate access</t>
-  </si>
-  <si>
-    <t>Requirmement to co-locate public transport and employment/services.</t>
-  </si>
-  <si>
-    <t>Requirment for decentralised employment</t>
-  </si>
-  <si>
-    <t>Requirement for employment/activity centres to be distributed throughout the city</t>
-  </si>
-  <si>
-    <t>Requirement for centralised employment/activity centres</t>
-  </si>
-  <si>
-    <t>Requirement for too few jobs per area/zone</t>
-  </si>
-  <si>
-    <t>Requirement for balanced ratio of jobs to housing, to support well-distributed employment across the city</t>
-  </si>
-  <si>
-    <t>Requirement for low public transport frequencies that discourage usage</t>
-  </si>
-  <si>
-    <t>Requirement for access to frequent public transport</t>
-  </si>
-  <si>
-    <t>Requirement for access to rapid/high speed public transport</t>
-  </si>
-  <si>
-    <t>Requirement for low public transport speeds that discourage usage</t>
-  </si>
-  <si>
-    <t>Requirement to increase or maintain high level of public transport use (e.g., % mode share)</t>
-  </si>
-  <si>
-    <t>Requirement to decrease or maintain low levels of public transport use</t>
-  </si>
-  <si>
-    <t>Policy to create 20-minute/15-minute neighbourhoods or cities</t>
-  </si>
-  <si>
-    <t>Policy to create liveable cities/neighbourhoods</t>
-  </si>
-  <si>
-    <t>Policy to create complete neighbourhoods with housing and services</t>
-  </si>
-  <si>
-    <t>Requirement for neighbourhoods/cities with short distances between routine activities</t>
-  </si>
-  <si>
-    <t>Requirement for public transport trip times or distances to employment/key services that do not promote easy access</t>
-  </si>
-  <si>
-    <t>Policies/development controls discourage or work against reducing habitat fragmentation/increasing habitat connectivity</t>
-  </si>
-  <si>
-    <t>Typhoons</t>
-  </si>
-  <si>
-    <t>Cyclones</t>
-  </si>
-  <si>
-    <t>Hurricanes</t>
-  </si>
-  <si>
-    <t>Earthquakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe storms </t>
-  </si>
-  <si>
-    <t>Floods</t>
-  </si>
-  <si>
-    <t>Bushfires/wildfires</t>
-  </si>
-  <si>
-    <t>… severe storms</t>
-  </si>
-  <si>
-    <t>Appropriate levels and types of lighting are required in public spaces</t>
-  </si>
-  <si>
-    <t>Establishment of weather-sensitive routes through the city (e.g., cool routes, wind tunnel prevention, snow melting etc.)</t>
-  </si>
-  <si>
-    <t>Buildings and/or built environment features required to be designed to reduce impacts of …</t>
-  </si>
-  <si>
-    <t>Distance to major/general food stores/schools requirements do not support walkable access</t>
-  </si>
-  <si>
-    <t>Requirements for nearby access to fresh food stores</t>
-  </si>
-  <si>
-    <t>Restrictions on the density of fast food or 'junk' food stores</t>
-  </si>
-  <si>
-    <t>Requirements for healthy food environments</t>
-  </si>
-  <si>
-    <t>Requirements for provision of, or access to, community gardens</t>
-  </si>
-  <si>
-    <t>Requirements/provisions for location/density of fresh food stores are inadequate to ensure easy access</t>
-  </si>
-  <si>
-    <t>Requirements/restrictions on location/density of fast food outlets are inadequate to limit access</t>
-  </si>
-  <si>
-    <t>Required ratio of healthy food stores to all food stores supports healthy food access</t>
-  </si>
-  <si>
-    <t>Required ratio of healthy food stores to all food stores does not prioritise healthy food access</t>
-  </si>
-  <si>
-    <t>Bans/restrictions on locating fast food outlets near schools or other key land uses</t>
-  </si>
-  <si>
-    <t>https://livingadelaide.sa.gov.au/</t>
-  </si>
-  <si>
-    <t>At least 25 dwellings per ha is required to support walkability. The target is above this minimum.</t>
-  </si>
-  <si>
-    <t>The 30-Year Plan for Greater Adelaide</t>
-  </si>
-  <si>
-    <t>Renewal SA, 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p5-“We need to move from car dependent, low density suburbs to walkable, mixed use medium density communities that are close to transport, jobs and services.” </t>
-  </si>
-  <si>
-    <t>Increase average gross densities of development within activity centres and transit corridor catchments from 15 to 25 dwellings per hectare to 35 dwellings per hectare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other information or notes </t>
-  </si>
-  <si>
-    <t>Level of government</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Year (yyyy)</t>
-  </si>
-  <si>
-    <t>Adoption date</t>
-  </si>
-  <si>
-    <t>URL and/or citation</t>
-  </si>
-  <si>
-    <t>Copy of relevant text</t>
-  </si>
-  <si>
-    <t>Please select from drop down menu</t>
-  </si>
-  <si>
-    <t>No, Yes or Unclear</t>
-  </si>
-  <si>
-    <t>If more than one policy applicable for an item, please insert another row, like this:</t>
-  </si>
-  <si>
-    <t>1000 Cities Challenge Urban Policy Checklist Instructions</t>
-  </si>
-  <si>
-    <t>·</t>
-  </si>
-  <si>
-    <t>Identify person(s) with good local knowledge of the policy context to collect policy data for your city. For example:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The checklist is available for download from https://www.healthysustainablecities.org/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data collection will require identification, retrieval, and assessment of the content of multiple policy/legislation documents. </t>
-  </si>
-  <si>
-    <t>Use the indicator findings and report for local advocacy or further research</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (select all that apply): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter relevant policy details into the 'Policy Checklist' tab, translating into English language, if required. If multiple levels of government are relevant for your city, include policies for all relevant levels of government in the same checklist. There may be more than one policy document relevant to each measure and/or principle. </t>
-  </si>
-  <si>
-    <t>Environmental disasters likely to be faced by the city over next 5-10 years</t>
-  </si>
-  <si>
-    <t>Policy name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p44-“Increase average gross densities of development within activity centres and transit corridor catchments from 15 to 25 dwellings per hectare to 35 dwellings per hectare.” </t>
-  </si>
-  <si>
-    <t>There are other density targets for particular land use zones, but these differ across the city, depending on how the zoning is applied.</t>
-  </si>
-  <si>
-    <t>Please note any other relevant information. Note if a policy is not applicable to your city context, and explain why.   If 'Unclear' was selected, please provide more detail explaining this choice.</t>
   </si>
   <si>
     <r>
@@ -993,350 +1332,12 @@
       <t>(164). https://doi.org/10.1186/s12966-017-0621-9</t>
     </r>
   </si>
-  <si>
-    <t>Public policies are essential for supporting the design and creation of healthy and sustainable cities and neighbourhoods. The Policy Checklist assesses the presence and quality of recommended policies for your city. The checklist can then be used to generate a city scorecard and report, which summarise policy indicators for your city, and are designed to be tools to assist in advocating for change.</t>
-  </si>
-  <si>
-    <t>1000 Cities Challenge - Urban Policy Checklist Collection Details</t>
-  </si>
-  <si>
-    <t>If yes, is the measurable target an evidence-informed threshold?</t>
-  </si>
-  <si>
-    <t>HEALTHY AND WALKABLE CITY POLICIES</t>
-  </si>
-  <si>
-    <t>A report will be uploaded to the Global Observatory of Healthy and Sustainable Cities website</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If more than one document is applicable for a particular principle, list multiple policies by inserting and completing new rows below that principle, as required. To do this, right click the number of the row </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>below</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> where you require a new row and select 'Insert'. </t>
-    </r>
-  </si>
-  <si>
-    <t>To view more details on how to insert a new row, click here</t>
-  </si>
-  <si>
-    <t>The checklist can be applied to any jurisdiction (e.g. local, metropolitan, regional government), as relevant for your city. However, the Global Observatory of Healthy and Sustainable Cities aims to include the whole metropolitan area of cities, wherever possible. Therefore, we recommend:</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>If a principle is not relevant to your city context, please note this here, and explain why.</t>
-  </si>
-  <si>
-    <t>If 'Unclear' was selected, please provide more detail explaining this choice.</t>
-  </si>
-  <si>
-    <t>Please include any other relevant information.</t>
-  </si>
-  <si>
-    <t>Academic or Masters/PhD student in urban or transport planning</t>
-  </si>
-  <si>
-    <t>City or metropolitan government staff</t>
-  </si>
-  <si>
-    <t>Local healthy cities or sustainability advocacy organisation staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">applying the checklist to the level(s) of government responsible for the whole metropolitan area, and/or which affect the majority of the metropolitan population. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if you are assessing a smaller administrative unit/jurisdiction within a larger metropolitan area, please clearly indicate this is the 'Collection details' tab, and explain why. </t>
-  </si>
-  <si>
-    <t>provide training and support for policy data collection</t>
-  </si>
-  <si>
-    <t>identify Country/regional coordinators who can provide advice as mentors.</t>
-  </si>
-  <si>
-    <t>The 1000 Cities Challenge team will:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email your completed checklist to Melanie Lowe (melanie.lowe@rmit.edu.au) and info@healthysustainablecities.org. </t>
-  </si>
-  <si>
-    <t>You will then be notified of the local data validation process.</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>Metropolitan</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Names of level(s) of government policy included the policy checklist</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Other / comments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(Please indicate if you are assessing a smaller administrative unit/jurisdiction within a larger metropolitan area and explain why, as per instructions Step 2)</t>
-    </r>
-  </si>
-  <si>
-    <t>(complete as required):</t>
-  </si>
-  <si>
-    <t>Local destinations for healthy, walkable cities</t>
-  </si>
-  <si>
-    <t>Cite established evidence or standards (click green cells for example guidance)</t>
-  </si>
-  <si>
-    <t>Is the policy mandatory / legally required?</t>
-  </si>
-  <si>
-    <t>Page-"quote"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Giles-Corti B, Vernez Moudon A, Reis R, et al. City planning and population health: a global challenge. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Lancet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2016; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(10062): 2912-24. https://doi.org/10.1016/s0140-6736(16)30066-6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lowe M, Adlakha D, Sallis JF, et al. City planning policies to support health and sustainability: an international comparison of policy indicators for 25 cities. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Lancet Global Health</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2022; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6): e882 - e94. https://doi.org/10.1016/S2214-109X(22)00069-9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cerin E, Sallis JF, Salvo D, et al. Determining thresholds for spatial urban design and transport features to create healthy and sustainable cities: findings from the IPEN Adult study. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Lancet Global Health</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2022; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6): e895 - e906. https://doi.org/10.1016/S2214-109X(22)00068-7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Other information or notes' column: </t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>1000 Cities Challenge - Urban Policy Checklist</t>
-  </si>
-  <si>
-    <t>version 1.0.0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Does the policy include a measurable target?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i.e. a measurable quantitative standard or threshold that may include a delivery timeframe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Principles
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Is policy aligned with principles of healthy and sustainable cities?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,6 +1564,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2151,7 +2169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2720,10 +2738,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2810,17 +2824,20 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2846,20 +2863,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2867,20 +2896,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2978,8 +2995,6 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2989,6 +3004,10 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3494,315 +3513,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B58290-3ADE-464D-B178-F7852B2419A2}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="113" customWidth="1"/>
     <col min="4" max="16384" width="9.28515625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="36" customHeight="1">
       <c r="A1" s="105"/>
       <c r="B1" s="105"/>
       <c r="C1" s="94"/>
     </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="94"/>
     </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="36" customHeight="1">
+      <c r="A3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="200"/>
       <c r="B4" s="200"/>
       <c r="C4" s="200"/>
     </row>
-    <row r="5" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="61.5" customHeight="1">
       <c r="A5" s="201" t="s">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="B5" s="201"/>
       <c r="C5" s="201"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="200"/>
       <c r="B6" s="200"/>
       <c r="C6" s="200"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="257"/>
+      <c r="C7" s="257"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="198" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="198"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="199"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="53"/>
       <c r="B9" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="53"/>
       <c r="B10" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="53"/>
       <c r="B11" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="198" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="198"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="199"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="106"/>
       <c r="B13" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C14" s="167" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="107"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" s="257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="257"/>
+      <c r="C16" s="257"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="198" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" s="198"/>
-    </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="199"/>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1">
       <c r="A18" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="198" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="198"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B18" s="199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="199"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="106"/>
       <c r="B19" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" customHeight="1">
       <c r="A20" s="53"/>
       <c r="B20" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" customHeight="1">
       <c r="A21" s="106" t="s">
-        <v>277</v>
+        <v>3</v>
       </c>
       <c r="B21" s="198" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="198"/>
-    </row>
-    <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C21" s="108"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="198" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="198"/>
-    </row>
-    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B22" s="199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="199"/>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1">
       <c r="A23" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="198" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="198"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="168" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" s="203" t="s">
-        <v>328</v>
-      </c>
-      <c r="C25" s="203"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B23" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="199"/>
+    </row>
+    <row r="24" spans="1:3" ht="45" customHeight="1">
+      <c r="A24" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="199"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="A25" s="167"/>
+      <c r="B25" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="168" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="202"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="53"/>
       <c r="B27" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C27" s="108" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="53" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="108"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="198" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="198"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="108"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="A31" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="203"/>
+      <c r="C31" s="203"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="198" t="s">
-        <v>311</v>
-      </c>
-      <c r="C32" s="198"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" s="198" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="198"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="199"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="199"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="A34" s="106"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="203" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="203"/>
+      <c r="C35" s="203"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" s="198" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="198"/>
+        <v>3</v>
+      </c>
+      <c r="B36" s="199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="199"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="A37" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -3811,11 +3839,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" display="○ To view more details on how to insert a new row, click here" xr:uid="{45345299-ED7E-47D8-AEAE-79F712512FF9}"/>
+    <hyperlink ref="C25" r:id="rId1" display="○ To view more details on how to insert a new row, click here" xr:uid="{45345299-ED7E-47D8-AEAE-79F712512FF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3831,10 +3859,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
@@ -3842,216 +3870,216 @@
     <col min="4" max="16384" width="9.28515625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="181" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="180" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="93"/>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
     </row>
-    <row r="2" spans="1:3" s="181" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="180" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="93"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
     </row>
-    <row r="3" spans="1:3" s="182" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="209"/>
+    <row r="3" spans="1:3" s="181" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="208" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="208"/>
       <c r="C5" s="109"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="210"/>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="209"/>
       <c r="C6" s="110"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="210"/>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="209" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="209"/>
       <c r="C7" s="109"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="210" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="210"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" s="209" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="209"/>
       <c r="C8" s="110"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="165"/>
-      <c r="B9" s="171" t="s">
-        <v>316</v>
+      <c r="B9" s="170" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="110"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="165"/>
-      <c r="B10" s="171" t="s">
-        <v>329</v>
+      <c r="B10" s="170" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="109"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="165"/>
-      <c r="B11" s="171" t="s">
-        <v>317</v>
+      <c r="B11" s="170" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="110"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="207"/>
-      <c r="C12" s="173"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="206"/>
+      <c r="C12" s="172"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="166"/>
       <c r="B13" s="166" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="173"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C13" s="172"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="164"/>
       <c r="B14" s="169" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="C14" s="109"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="164"/>
       <c r="B15" s="169" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="C15" s="110"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16" s="164"/>
       <c r="B16" s="169" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="C16" s="109"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="164"/>
       <c r="B17" s="169" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="C17" s="110"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="169" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="164"/>
-      <c r="B19" s="170" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="172"/>
-    </row>
-    <row r="20" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="206" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="206"/>
-      <c r="C20" s="174"/>
-    </row>
-    <row r="21" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="206" t="s">
-        <v>282</v>
-      </c>
-      <c r="B21" s="206"/>
+      <c r="B19" s="197" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="171"/>
+    </row>
+    <row r="20" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="205"/>
+      <c r="C20" s="173"/>
+    </row>
+    <row r="21" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="205"/>
       <c r="C21" s="111"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="205" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="175"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="205" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="205"/>
-      <c r="C23" s="176"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="205" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="205"/>
-      <c r="C24" s="176"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="205" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="176"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="205" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="176"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="205" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="177"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="205" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="205"/>
-      <c r="C28" s="177"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="205"/>
-      <c r="C29" s="177"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="205" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="176"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="204"/>
+      <c r="C22" s="174"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="204"/>
+      <c r="C23" s="175"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="204"/>
+      <c r="C24" s="175"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="A25" s="204" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="204"/>
+      <c r="C25" s="175"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="204" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="204"/>
+      <c r="C26" s="175"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="204" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="204"/>
+      <c r="C27" s="176"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="A28" s="204" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="204"/>
+      <c r="C28" s="176"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" s="204" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="204"/>
+      <c r="C29" s="176"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="204"/>
+      <c r="C30" s="175"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="112"/>
       <c r="B31" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="178"/>
+        <v>59</v>
+      </c>
+      <c r="C31" s="177"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4093,14 +4121,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFECF44-670A-42DD-8E77-1B9AE269ADAB}">
   <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
@@ -4114,178 +4142,178 @@
     <col min="15" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="254" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="240" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="240" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="240" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="240" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="248" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="240" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="247" t="s">
-        <v>332</v>
-      </c>
-      <c r="K1" s="248"/>
-      <c r="L1" s="252" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" s="248"/>
-      <c r="N1" s="240" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="241"/>
-    </row>
-    <row r="3" spans="1:14" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="182" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="258" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="239" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="239" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="239" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="239" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="247" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="239" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="246" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="247"/>
+      <c r="L1" s="251" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="247"/>
+      <c r="N1" s="239" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="182" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="240"/>
+    </row>
+    <row r="3" spans="1:14" s="182" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="145" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B3" s="142" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="179" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="179" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="180"/>
-      <c r="H3" s="193" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="J3" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" s="194" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="179" t="s">
-        <v>274</v>
-      </c>
-      <c r="M3" s="195" t="s">
-        <v>322</v>
-      </c>
-      <c r="N3" s="196" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="184" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D3" s="253"/>
+      <c r="E3" s="178" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="178" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="179"/>
+      <c r="H3" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="178" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="178" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="178" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="194" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="183" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="148"/>
       <c r="B4" s="143"/>
       <c r="C4" s="96" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="F4" s="99">
         <v>2017</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J4" s="101" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K4" s="115" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="L4" s="114" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M4" s="115" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="N4" s="102" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="184" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="183" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="149"/>
       <c r="B5" s="144"/>
       <c r="C5" s="104" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="F5" s="99">
         <v>2015</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="H5" s="100" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="I5" s="113" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J5" s="113" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="K5" s="115"/>
       <c r="L5" s="116"/>
       <c r="M5" s="115"/>
       <c r="N5" s="102"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="251" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="250"/>
+      <c r="C6" s="250"/>
       <c r="D6" s="67"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -4298,12 +4326,12 @@
       <c r="M6" s="14"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="246"/>
+    <row r="7" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="221" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="221"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="68"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -4316,34 +4344,34 @@
       <c r="M7" s="15"/>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="232" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="233"/>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="215" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="231" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="232"/>
       <c r="D8" s="50"/>
       <c r="E8" s="65"/>
-      <c r="F8" s="224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="226"/>
+      <c r="F8" s="223" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
       <c r="N8" s="38"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="227" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="228"/>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="215"/>
+      <c r="B9" s="226" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="227"/>
       <c r="D9" s="23"/>
       <c r="E9" s="65"/>
       <c r="F9" s="56"/>
@@ -4356,12 +4384,12 @@
       <c r="M9" s="118"/>
       <c r="N9" s="39"/>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
-      <c r="B10" s="227" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="228"/>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="215"/>
+      <c r="B10" s="226" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="227"/>
       <c r="D10" s="23"/>
       <c r="E10" s="65"/>
       <c r="F10" s="46"/>
@@ -4374,12 +4402,12 @@
       <c r="M10" s="118"/>
       <c r="N10" s="39"/>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
-      <c r="B11" s="227" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="228"/>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="215"/>
+      <c r="B11" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="227"/>
       <c r="D11" s="23"/>
       <c r="E11" s="65"/>
       <c r="F11" s="46"/>
@@ -4392,13 +4420,13 @@
       <c r="M11" s="118"/>
       <c r="N11" s="39"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
-      <c r="B12" s="229" t="s">
-        <v>22</v>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="215"/>
+      <c r="B12" s="228" t="s">
+        <v>101</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="4"/>
@@ -4412,11 +4440,11 @@
       <c r="M12" s="135"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="230"/>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="A13" s="215"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="150" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -4430,11 +4458,11 @@
       <c r="M13" s="118"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="218"/>
-      <c r="B14" s="230"/>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="A14" s="215"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="151" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4448,11 +4476,11 @@
       <c r="M14" s="119"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
-      <c r="B15" s="230"/>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="215"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="151" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -4466,11 +4494,11 @@
       <c r="M15" s="119"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="219"/>
-      <c r="B16" s="231"/>
+    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="A16" s="216"/>
+      <c r="B16" s="230"/>
       <c r="C16" s="152" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4484,12 +4512,12 @@
       <c r="M16" s="120"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="220" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
+    <row r="17" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="221" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
       <c r="D17" s="70"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -4502,15 +4530,15 @@
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="218" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="213" t="s">
-        <v>29</v>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="215" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="211" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="3"/>
@@ -4524,11 +4552,11 @@
       <c r="M18" s="136"/>
       <c r="N18" s="44"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="213"/>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="215"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="153" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="29"/>
@@ -4542,13 +4570,13 @@
       <c r="M19" s="121"/>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="215"/>
       <c r="B20" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C20" s="154" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -4562,13 +4590,13 @@
       <c r="M20" s="119"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="216" t="s">
-        <v>32</v>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="215"/>
+      <c r="B21" s="219" t="s">
+        <v>113</v>
       </c>
       <c r="C21" s="154" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -4582,11 +4610,11 @@
       <c r="M21" s="119"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
-      <c r="B22" s="216"/>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="A22" s="215"/>
+      <c r="B22" s="219"/>
       <c r="C22" s="154" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -4600,11 +4628,11 @@
       <c r="M22" s="119"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
-      <c r="B23" s="216"/>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="215"/>
+      <c r="B23" s="219"/>
       <c r="C23" s="154" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -4618,13 +4646,13 @@
       <c r="M23" s="119"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="218"/>
-      <c r="B24" s="216" t="s">
-        <v>34</v>
+    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="A24" s="215"/>
+      <c r="B24" s="219" t="s">
+        <v>117</v>
       </c>
       <c r="C24" s="154" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -4638,11 +4666,11 @@
       <c r="M24" s="119"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="218"/>
-      <c r="B25" s="216"/>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="215"/>
+      <c r="B25" s="219"/>
       <c r="C25" s="154" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -4656,11 +4684,11 @@
       <c r="M25" s="119"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="218"/>
-      <c r="B26" s="216"/>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="215"/>
+      <c r="B26" s="219"/>
       <c r="C26" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
@@ -4674,11 +4702,11 @@
       <c r="M26" s="119"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
-      <c r="B27" s="216"/>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="215"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="2"/>
@@ -4692,11 +4720,11 @@
       <c r="M27" s="137"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="218"/>
-      <c r="B28" s="216"/>
+    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="A28" s="215"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="153" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="29"/>
@@ -4710,11 +4738,11 @@
       <c r="M28" s="119"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
-      <c r="B29" s="216"/>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="A29" s="215"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="154" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -4728,11 +4756,11 @@
       <c r="M29" s="119"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
-      <c r="B30" s="216"/>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="A30" s="215"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="154" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -4746,11 +4774,11 @@
       <c r="M30" s="119"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
-      <c r="B31" s="235"/>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="215"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4764,13 +4792,13 @@
       <c r="M31" s="120"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
-      <c r="B32" s="212" t="s">
-        <v>44</v>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="215"/>
+      <c r="B32" s="210" t="s">
+        <v>123</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="2"/>
@@ -4784,11 +4812,11 @@
       <c r="M32" s="137"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
-      <c r="B33" s="213"/>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="215"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="153" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="29"/>
@@ -4802,11 +4830,11 @@
       <c r="M33" s="121"/>
       <c r="N33" s="24"/>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="218"/>
-      <c r="B34" s="213"/>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
+      <c r="A34" s="215"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="154" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
@@ -4820,11 +4848,11 @@
       <c r="M34" s="119"/>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
-      <c r="B35" s="213"/>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="215"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="154" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
@@ -4838,11 +4866,11 @@
       <c r="M35" s="119"/>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="218"/>
-      <c r="B36" s="213"/>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="215"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="154" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
@@ -4856,11 +4884,11 @@
       <c r="M36" s="119"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="218"/>
-      <c r="B37" s="213"/>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="215"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
@@ -4874,11 +4902,11 @@
       <c r="M37" s="119"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218"/>
-      <c r="B38" s="213"/>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="215"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="2"/>
@@ -4892,11 +4920,11 @@
       <c r="M38" s="124"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
-      <c r="B39" s="213"/>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="215"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="154" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="29"/>
@@ -4910,11 +4938,11 @@
       <c r="M39" s="119"/>
       <c r="N39" s="25"/>
     </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
-      <c r="B40" s="214"/>
+    <row r="40" spans="1:14" ht="30" customHeight="1">
+      <c r="A40" s="216"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -4928,12 +4956,12 @@
       <c r="M40" s="120"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
+    <row r="41" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="221" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
       <c r="D41" s="70"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -4946,15 +4974,15 @@
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="218" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="213" t="s">
-        <v>51</v>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="215" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="211" t="s">
+        <v>131</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="3"/>
@@ -4968,11 +4996,11 @@
       <c r="M42" s="136"/>
       <c r="N42" s="44"/>
     </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
-      <c r="B43" s="213"/>
+    <row r="43" spans="1:14" ht="30" customHeight="1">
+      <c r="A43" s="215"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="153" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="29"/>
@@ -4986,11 +5014,11 @@
       <c r="M43" s="121"/>
       <c r="N43" s="24"/>
     </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="218"/>
-      <c r="B44" s="213"/>
+    <row r="44" spans="1:14" ht="30" customHeight="1">
+      <c r="A44" s="215"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="154" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -5004,11 +5032,11 @@
       <c r="M44" s="119"/>
       <c r="N44" s="25"/>
     </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="218"/>
-      <c r="B45" s="213"/>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="215"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -5022,11 +5050,11 @@
       <c r="M45" s="119"/>
       <c r="N45" s="25"/>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="218"/>
-      <c r="B46" s="213"/>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="215"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="2"/>
@@ -5040,11 +5068,11 @@
       <c r="M46" s="137"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="213"/>
+    <row r="47" spans="1:14" ht="30" customHeight="1">
+      <c r="A47" s="215"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="153" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="29"/>
@@ -5058,11 +5086,11 @@
       <c r="M47" s="119"/>
       <c r="N47" s="25"/>
     </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="218"/>
-      <c r="B48" s="213"/>
+    <row r="48" spans="1:14" ht="30" customHeight="1">
+      <c r="A48" s="215"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="154" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -5076,11 +5104,11 @@
       <c r="M48" s="119"/>
       <c r="N48" s="25"/>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
-      <c r="B49" s="213"/>
+    <row r="49" spans="1:14" ht="30" customHeight="1">
+      <c r="A49" s="216"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="156" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="21"/>
@@ -5094,12 +5122,12 @@
       <c r="M49" s="125"/>
       <c r="N49" s="28"/>
     </row>
-    <row r="50" spans="1:14" s="186" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="220" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="220"/>
-      <c r="C50" s="246"/>
+    <row r="50" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="221"/>
+      <c r="C50" s="245"/>
       <c r="D50" s="70"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
@@ -5112,15 +5140,15 @@
       <c r="M50" s="42"/>
       <c r="N50" s="45"/>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="218" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="213" t="s">
-        <v>57</v>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="215" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="211" t="s">
+        <v>138</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="3"/>
@@ -5134,11 +5162,11 @@
       <c r="M51" s="136"/>
       <c r="N51" s="44"/>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="218"/>
-      <c r="B52" s="213"/>
+    <row r="52" spans="1:14" ht="30" customHeight="1">
+      <c r="A52" s="215"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="153" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="29"/>
@@ -5152,31 +5180,31 @@
       <c r="M52" s="121"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="218"/>
-      <c r="B53" s="213"/>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
+      <c r="A53" s="215"/>
+      <c r="B53" s="211"/>
       <c r="C53" s="154" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" s="243"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="244"/>
-      <c r="J53" s="244"/>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="244"/>
-      <c r="N53" s="245"/>
-    </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="218"/>
+        <v>140</v>
+      </c>
+      <c r="D53" s="242"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="243"/>
+      <c r="H53" s="243"/>
+      <c r="I53" s="243"/>
+      <c r="J53" s="243"/>
+      <c r="K53" s="243"/>
+      <c r="L53" s="243"/>
+      <c r="M53" s="243"/>
+      <c r="N53" s="244"/>
+    </row>
+    <row r="54" spans="1:14" ht="30" customHeight="1">
+      <c r="A54" s="215"/>
       <c r="B54" s="33" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C54" s="157" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -5190,13 +5218,13 @@
       <c r="M54" s="119"/>
       <c r="N54" s="25"/>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="218"/>
-      <c r="B55" s="211" t="s">
-        <v>193</v>
+    <row r="55" spans="1:14" ht="30" customHeight="1">
+      <c r="A55" s="215"/>
+      <c r="B55" s="214" t="s">
+        <v>143</v>
       </c>
       <c r="C55" s="157" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -5210,11 +5238,11 @@
       <c r="M55" s="119"/>
       <c r="N55" s="25"/>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="218"/>
-      <c r="B56" s="211"/>
+    <row r="56" spans="1:14" ht="30" customHeight="1">
+      <c r="A56" s="215"/>
+      <c r="B56" s="214"/>
       <c r="C56" s="157" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -5228,11 +5256,11 @@
       <c r="M56" s="119"/>
       <c r="N56" s="25"/>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="218"/>
-      <c r="B57" s="211"/>
+    <row r="57" spans="1:14" ht="30" customHeight="1">
+      <c r="A57" s="215"/>
+      <c r="B57" s="214"/>
       <c r="C57" s="157" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -5246,13 +5274,13 @@
       <c r="M57" s="119"/>
       <c r="N57" s="25"/>
     </row>
-    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="218"/>
-      <c r="B58" s="211" t="s">
-        <v>62</v>
+    <row r="58" spans="1:14" ht="30" customHeight="1">
+      <c r="A58" s="215"/>
+      <c r="B58" s="214" t="s">
+        <v>147</v>
       </c>
       <c r="C58" s="157" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -5266,11 +5294,11 @@
       <c r="M58" s="119"/>
       <c r="N58" s="25"/>
     </row>
-    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="218"/>
-      <c r="B59" s="211"/>
+    <row r="59" spans="1:14" ht="30" customHeight="1">
+      <c r="A59" s="215"/>
+      <c r="B59" s="214"/>
       <c r="C59" s="157" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="21"/>
@@ -5284,13 +5312,13 @@
       <c r="M59" s="119"/>
       <c r="N59" s="25"/>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="218"/>
-      <c r="B60" s="215" t="s">
-        <v>186</v>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
+      <c r="A60" s="215"/>
+      <c r="B60" s="213" t="s">
+        <v>149</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D60" s="72"/>
       <c r="E60" s="2"/>
@@ -5304,11 +5332,11 @@
       <c r="M60" s="137"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="218"/>
-      <c r="B61" s="215"/>
+    <row r="61" spans="1:14" ht="30" customHeight="1">
+      <c r="A61" s="215"/>
+      <c r="B61" s="213"/>
       <c r="C61" s="153" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="29"/>
@@ -5322,13 +5350,13 @@
       <c r="M61" s="119"/>
       <c r="N61" s="25"/>
     </row>
-    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="218"/>
-      <c r="B62" s="215" t="s">
-        <v>185</v>
+    <row r="62" spans="1:14" ht="30" customHeight="1">
+      <c r="A62" s="215"/>
+      <c r="B62" s="213" t="s">
+        <v>151</v>
       </c>
       <c r="C62" s="154" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -5342,11 +5370,11 @@
       <c r="M62" s="119"/>
       <c r="N62" s="25"/>
     </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="219"/>
-      <c r="B63" s="217"/>
+    <row r="63" spans="1:14" ht="30" customHeight="1">
+      <c r="A63" s="216"/>
+      <c r="B63" s="220"/>
       <c r="C63" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
@@ -5360,12 +5388,12 @@
       <c r="M63" s="120"/>
       <c r="N63" s="26"/>
     </row>
-    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="242" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="242"/>
-      <c r="C64" s="242"/>
+    <row r="64" spans="1:14" ht="30" customHeight="1">
+      <c r="A64" s="241" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="241"/>
+      <c r="C64" s="241"/>
       <c r="D64" s="73"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -5378,12 +5406,12 @@
       <c r="M64" s="16"/>
       <c r="N64" s="40"/>
     </row>
-    <row r="65" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="238" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="238"/>
-      <c r="C65" s="238"/>
+    <row r="65" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A65" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
       <c r="D65" s="70"/>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
@@ -5396,15 +5424,15 @@
       <c r="M65" s="42"/>
       <c r="N65" s="42"/>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="218" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="213" t="s">
-        <v>69</v>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="215" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="211" t="s">
+        <v>156</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D66" s="71"/>
       <c r="E66" s="3"/>
@@ -5418,11 +5446,11 @@
       <c r="M66" s="136"/>
       <c r="N66" s="44"/>
     </row>
-    <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="218"/>
-      <c r="B67" s="213"/>
+    <row r="67" spans="1:14" ht="30" customHeight="1">
+      <c r="A67" s="215"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="153" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="29"/>
@@ -5436,11 +5464,11 @@
       <c r="M67" s="146"/>
       <c r="N67" s="24"/>
     </row>
-    <row r="68" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="218"/>
-      <c r="B68" s="213"/>
+    <row r="68" spans="1:14" ht="30" customHeight="1">
+      <c r="A68" s="215"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="154" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -5454,11 +5482,11 @@
       <c r="M68" s="146"/>
       <c r="N68" s="25"/>
     </row>
-    <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="218"/>
-      <c r="B69" s="213"/>
+    <row r="69" spans="1:14" ht="30" customHeight="1">
+      <c r="A69" s="215"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="154" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -5472,11 +5500,11 @@
       <c r="M69" s="146"/>
       <c r="N69" s="25"/>
     </row>
-    <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="218"/>
-      <c r="B70" s="213"/>
+    <row r="70" spans="1:14" ht="30" customHeight="1">
+      <c r="A70" s="215"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="154" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
@@ -5490,11 +5518,11 @@
       <c r="M70" s="119"/>
       <c r="N70" s="25"/>
     </row>
-    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="218"/>
-      <c r="B71" s="213"/>
+    <row r="71" spans="1:14" ht="30" customHeight="1">
+      <c r="A71" s="215"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21"/>
@@ -5508,11 +5536,11 @@
       <c r="M71" s="119"/>
       <c r="N71" s="25"/>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="218"/>
-      <c r="B72" s="213"/>
+    <row r="72" spans="1:14" ht="15" customHeight="1">
+      <c r="A72" s="215"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D72" s="72"/>
       <c r="E72" s="2"/>
@@ -5526,11 +5554,11 @@
       <c r="M72" s="137"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="218"/>
-      <c r="B73" s="213"/>
+    <row r="73" spans="1:14" ht="30" customHeight="1">
+      <c r="A73" s="215"/>
+      <c r="B73" s="211"/>
       <c r="C73" s="153" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="29"/>
@@ -5544,11 +5572,11 @@
       <c r="M73" s="127"/>
       <c r="N73" s="25"/>
     </row>
-    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="218"/>
-      <c r="B74" s="214"/>
+    <row r="74" spans="1:14" ht="30" customHeight="1">
+      <c r="A74" s="215"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -5562,13 +5590,13 @@
       <c r="M74" s="128"/>
       <c r="N74" s="26"/>
     </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="218"/>
-      <c r="B75" s="212" t="s">
-        <v>75</v>
+    <row r="75" spans="1:14" ht="15" customHeight="1">
+      <c r="A75" s="215"/>
+      <c r="B75" s="210" t="s">
+        <v>162</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D75" s="72"/>
       <c r="E75" s="2"/>
@@ -5582,11 +5610,11 @@
       <c r="M75" s="137"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="218"/>
-      <c r="B76" s="213"/>
+    <row r="76" spans="1:14" ht="30" customHeight="1">
+      <c r="A76" s="215"/>
+      <c r="B76" s="211"/>
       <c r="C76" s="153" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="29"/>
@@ -5600,11 +5628,11 @@
       <c r="M76" s="121"/>
       <c r="N76" s="24"/>
     </row>
-    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="218"/>
-      <c r="B77" s="213"/>
+    <row r="77" spans="1:14" ht="30" customHeight="1">
+      <c r="A77" s="215"/>
+      <c r="B77" s="211"/>
       <c r="C77" s="154" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="21"/>
@@ -5618,11 +5646,11 @@
       <c r="M77" s="119"/>
       <c r="N77" s="25"/>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="218"/>
-      <c r="B78" s="213"/>
+    <row r="78" spans="1:14" ht="15" customHeight="1">
+      <c r="A78" s="215"/>
+      <c r="B78" s="211"/>
       <c r="C78" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D78" s="72"/>
       <c r="E78" s="2"/>
@@ -5636,11 +5664,11 @@
       <c r="M78" s="137"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="218"/>
-      <c r="B79" s="213"/>
+    <row r="79" spans="1:14" ht="30" customHeight="1">
+      <c r="A79" s="215"/>
+      <c r="B79" s="211"/>
       <c r="C79" s="153" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="29"/>
@@ -5654,11 +5682,11 @@
       <c r="M79" s="119"/>
       <c r="N79" s="25"/>
     </row>
-    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="218"/>
-      <c r="B80" s="214"/>
+    <row r="80" spans="1:14" ht="30" customHeight="1">
+      <c r="A80" s="215"/>
+      <c r="B80" s="212"/>
       <c r="C80" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
@@ -5672,13 +5700,13 @@
       <c r="M80" s="120"/>
       <c r="N80" s="26"/>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="218"/>
-      <c r="B81" s="212" t="s">
-        <v>79</v>
+    <row r="81" spans="1:14" ht="15" customHeight="1">
+      <c r="A81" s="215"/>
+      <c r="B81" s="210" t="s">
+        <v>166</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D81" s="72"/>
       <c r="E81" s="2"/>
@@ -5692,11 +5720,11 @@
       <c r="M81" s="137"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="218"/>
-      <c r="B82" s="213"/>
+    <row r="82" spans="1:14" ht="30" customHeight="1">
+      <c r="A82" s="215"/>
+      <c r="B82" s="211"/>
       <c r="C82" s="153" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="29"/>
@@ -5710,11 +5738,11 @@
       <c r="M82" s="121"/>
       <c r="N82" s="24"/>
     </row>
-    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="218"/>
-      <c r="B83" s="213"/>
+    <row r="83" spans="1:14" ht="30" customHeight="1">
+      <c r="A83" s="215"/>
+      <c r="B83" s="211"/>
       <c r="C83" s="154" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
@@ -5728,11 +5756,11 @@
       <c r="M83" s="119"/>
       <c r="N83" s="25"/>
     </row>
-    <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="218"/>
-      <c r="B84" s="213"/>
+    <row r="84" spans="1:14" ht="30" customHeight="1">
+      <c r="A84" s="215"/>
+      <c r="B84" s="211"/>
       <c r="C84" s="154" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -5746,11 +5774,11 @@
       <c r="M84" s="119"/>
       <c r="N84" s="25"/>
     </row>
-    <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="218"/>
-      <c r="B85" s="213"/>
+    <row r="85" spans="1:14" ht="30" customHeight="1">
+      <c r="A85" s="215"/>
+      <c r="B85" s="211"/>
       <c r="C85" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="21"/>
@@ -5764,11 +5792,11 @@
       <c r="M85" s="119"/>
       <c r="N85" s="25"/>
     </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="218"/>
-      <c r="B86" s="213"/>
+    <row r="86" spans="1:14" ht="15" customHeight="1">
+      <c r="A86" s="215"/>
+      <c r="B86" s="211"/>
       <c r="C86" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D86" s="72"/>
       <c r="E86" s="2"/>
@@ -5782,11 +5810,11 @@
       <c r="M86" s="137"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="218"/>
-      <c r="B87" s="213"/>
+    <row r="87" spans="1:14" ht="30" customHeight="1">
+      <c r="A87" s="215"/>
+      <c r="B87" s="211"/>
       <c r="C87" s="153" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="29"/>
@@ -5800,11 +5828,11 @@
       <c r="M87" s="119"/>
       <c r="N87" s="25"/>
     </row>
-    <row r="88" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="219"/>
-      <c r="B88" s="214"/>
+    <row r="88" spans="1:14" ht="30" customHeight="1">
+      <c r="A88" s="216"/>
+      <c r="B88" s="212"/>
       <c r="C88" s="155" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -5818,12 +5846,12 @@
       <c r="M88" s="120"/>
       <c r="N88" s="26"/>
     </row>
-    <row r="89" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="220" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" s="220"/>
-      <c r="C89" s="220"/>
+    <row r="89" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="221"/>
+      <c r="C89" s="221"/>
       <c r="D89" s="70"/>
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
@@ -5836,15 +5864,15 @@
       <c r="M89" s="42"/>
       <c r="N89" s="42"/>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="218" t="s">
+    <row r="90" spans="1:14" ht="15" customHeight="1">
+      <c r="A90" s="215" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="B90" s="213" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>13</v>
       </c>
       <c r="D90" s="71"/>
       <c r="E90" s="3"/>
@@ -5858,11 +5886,11 @@
       <c r="M90" s="136"/>
       <c r="N90" s="44"/>
     </row>
-    <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="218"/>
-      <c r="B91" s="213"/>
+    <row r="91" spans="1:14" ht="30" customHeight="1">
+      <c r="A91" s="215"/>
+      <c r="B91" s="211"/>
       <c r="C91" s="153" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="29"/>
@@ -5876,11 +5904,11 @@
       <c r="M91" s="121"/>
       <c r="N91" s="24"/>
     </row>
-    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="218"/>
-      <c r="B92" s="213"/>
+    <row r="92" spans="1:14" ht="30" customHeight="1">
+      <c r="A92" s="215"/>
+      <c r="B92" s="211"/>
       <c r="C92" s="154" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -5894,11 +5922,11 @@
       <c r="M92" s="119"/>
       <c r="N92" s="25"/>
     </row>
-    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="218"/>
-      <c r="B93" s="213"/>
+    <row r="93" spans="1:14" ht="30" customHeight="1">
+      <c r="A93" s="215"/>
+      <c r="B93" s="211"/>
       <c r="C93" s="154" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
@@ -5912,11 +5940,11 @@
       <c r="M93" s="119"/>
       <c r="N93" s="25"/>
     </row>
-    <row r="94" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="218"/>
-      <c r="B94" s="213"/>
+    <row r="94" spans="1:14" ht="30" customHeight="1">
+      <c r="A94" s="215"/>
+      <c r="B94" s="211"/>
       <c r="C94" s="154" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
@@ -5930,11 +5958,11 @@
       <c r="M94" s="119"/>
       <c r="N94" s="25"/>
     </row>
-    <row r="95" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="218"/>
-      <c r="B95" s="213"/>
+    <row r="95" spans="1:14" ht="30" customHeight="1">
+      <c r="A95" s="215"/>
+      <c r="B95" s="211"/>
       <c r="C95" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="21"/>
@@ -5948,11 +5976,11 @@
       <c r="M95" s="119"/>
       <c r="N95" s="25"/>
     </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="218"/>
-      <c r="B96" s="213"/>
+    <row r="96" spans="1:14" ht="15" customHeight="1">
+      <c r="A96" s="215"/>
+      <c r="B96" s="211"/>
       <c r="C96" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D96" s="72"/>
       <c r="E96" s="2"/>
@@ -5966,11 +5994,11 @@
       <c r="M96" s="137"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="218"/>
-      <c r="B97" s="213"/>
+    <row r="97" spans="1:14" ht="30" customHeight="1">
+      <c r="A97" s="215"/>
+      <c r="B97" s="211"/>
       <c r="C97" s="153" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="29"/>
@@ -5984,11 +6012,11 @@
       <c r="M97" s="119"/>
       <c r="N97" s="25"/>
     </row>
-    <row r="98" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="218"/>
-      <c r="B98" s="213"/>
+    <row r="98" spans="1:14" ht="30" customHeight="1">
+      <c r="A98" s="215"/>
+      <c r="B98" s="211"/>
       <c r="C98" s="154" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -6002,11 +6030,11 @@
       <c r="M98" s="119"/>
       <c r="N98" s="25"/>
     </row>
-    <row r="99" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="218"/>
-      <c r="B99" s="213"/>
+    <row r="99" spans="1:14" ht="30" customHeight="1">
+      <c r="A99" s="215"/>
+      <c r="B99" s="211"/>
       <c r="C99" s="154" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -6020,11 +6048,11 @@
       <c r="M99" s="119"/>
       <c r="N99" s="25"/>
     </row>
-    <row r="100" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="218"/>
-      <c r="B100" s="213"/>
+    <row r="100" spans="1:14" ht="30" customHeight="1">
+      <c r="A100" s="215"/>
+      <c r="B100" s="211"/>
       <c r="C100" s="154" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
@@ -6038,11 +6066,11 @@
       <c r="M100" s="119"/>
       <c r="N100" s="25"/>
     </row>
-    <row r="101" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="219"/>
-      <c r="B101" s="214"/>
+    <row r="101" spans="1:14" ht="30" customHeight="1">
+      <c r="A101" s="216"/>
+      <c r="B101" s="212"/>
       <c r="C101" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
@@ -6056,12 +6084,12 @@
       <c r="M101" s="120"/>
       <c r="N101" s="26"/>
     </row>
-    <row r="102" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="220" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="220"/>
-      <c r="C102" s="220"/>
+    <row r="102" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A102" s="221" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="221"/>
+      <c r="C102" s="221"/>
       <c r="D102" s="70"/>
       <c r="E102" s="42"/>
       <c r="F102" s="42"/>
@@ -6074,15 +6102,15 @@
       <c r="M102" s="42"/>
       <c r="N102" s="42"/>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="218" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="213" t="s">
-        <v>98</v>
+    <row r="103" spans="1:14" ht="15" customHeight="1">
+      <c r="A103" s="215" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="211" t="s">
+        <v>185</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D103" s="71"/>
       <c r="E103" s="3"/>
@@ -6096,11 +6124,11 @@
       <c r="M103" s="136"/>
       <c r="N103" s="44"/>
     </row>
-    <row r="104" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="218"/>
-      <c r="B104" s="213"/>
+    <row r="104" spans="1:14" ht="30" customHeight="1">
+      <c r="A104" s="215"/>
+      <c r="B104" s="211"/>
       <c r="C104" s="153" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="29"/>
@@ -6114,11 +6142,11 @@
       <c r="M104" s="119"/>
       <c r="N104" s="25"/>
     </row>
-    <row r="105" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="218"/>
-      <c r="B105" s="213"/>
+    <row r="105" spans="1:14" ht="30" customHeight="1">
+      <c r="A105" s="215"/>
+      <c r="B105" s="211"/>
       <c r="C105" s="154" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
@@ -6132,11 +6160,11 @@
       <c r="M105" s="119"/>
       <c r="N105" s="25"/>
     </row>
-    <row r="106" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="218"/>
-      <c r="B106" s="213"/>
+    <row r="106" spans="1:14" ht="30" customHeight="1">
+      <c r="A106" s="215"/>
+      <c r="B106" s="211"/>
       <c r="C106" s="154" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
@@ -6150,11 +6178,11 @@
       <c r="M106" s="119"/>
       <c r="N106" s="25"/>
     </row>
-    <row r="107" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="218"/>
-      <c r="B107" s="213"/>
+    <row r="107" spans="1:14" ht="30" customHeight="1">
+      <c r="A107" s="215"/>
+      <c r="B107" s="211"/>
       <c r="C107" s="154" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
@@ -6168,11 +6196,11 @@
       <c r="M107" s="119"/>
       <c r="N107" s="25"/>
     </row>
-    <row r="108" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="218"/>
-      <c r="B108" s="213"/>
+    <row r="108" spans="1:14" ht="30" customHeight="1">
+      <c r="A108" s="215"/>
+      <c r="B108" s="211"/>
       <c r="C108" s="154" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
@@ -6186,11 +6214,11 @@
       <c r="M108" s="119"/>
       <c r="N108" s="25"/>
     </row>
-    <row r="109" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="218"/>
-      <c r="B109" s="213"/>
+    <row r="109" spans="1:14" ht="30" customHeight="1">
+      <c r="A109" s="215"/>
+      <c r="B109" s="211"/>
       <c r="C109" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="21"/>
@@ -6204,11 +6232,11 @@
       <c r="M109" s="119"/>
       <c r="N109" s="25"/>
     </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="218"/>
-      <c r="B110" s="213"/>
+    <row r="110" spans="1:14" ht="15" customHeight="1">
+      <c r="A110" s="215"/>
+      <c r="B110" s="211"/>
       <c r="C110" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D110" s="72"/>
       <c r="E110" s="2"/>
@@ -6222,11 +6250,11 @@
       <c r="M110" s="137"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="218"/>
-      <c r="B111" s="213"/>
+    <row r="111" spans="1:14" ht="30" customHeight="1">
+      <c r="A111" s="215"/>
+      <c r="B111" s="211"/>
       <c r="C111" s="153" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="29"/>
@@ -6240,11 +6268,11 @@
       <c r="M111" s="119"/>
       <c r="N111" s="25"/>
     </row>
-    <row r="112" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="218"/>
-      <c r="B112" s="213"/>
+    <row r="112" spans="1:14" ht="30" customHeight="1">
+      <c r="A112" s="215"/>
+      <c r="B112" s="211"/>
       <c r="C112" s="154" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
@@ -6258,11 +6286,11 @@
       <c r="M112" s="119"/>
       <c r="N112" s="25"/>
     </row>
-    <row r="113" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="218"/>
-      <c r="B113" s="214"/>
+    <row r="113" spans="1:14" ht="30" customHeight="1">
+      <c r="A113" s="215"/>
+      <c r="B113" s="212"/>
       <c r="C113" s="155" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
@@ -6276,13 +6304,13 @@
       <c r="M113" s="120"/>
       <c r="N113" s="26"/>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="218"/>
-      <c r="B114" s="212" t="s">
-        <v>104</v>
+    <row r="114" spans="1:14" ht="15" customHeight="1">
+      <c r="A114" s="215"/>
+      <c r="B114" s="210" t="s">
+        <v>194</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D114" s="72"/>
       <c r="E114" s="2"/>
@@ -6296,11 +6324,11 @@
       <c r="M114" s="137"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="218"/>
-      <c r="B115" s="213"/>
+    <row r="115" spans="1:14" ht="39.75" customHeight="1">
+      <c r="A115" s="215"/>
+      <c r="B115" s="211"/>
       <c r="C115" s="153" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="29"/>
@@ -6314,11 +6342,11 @@
       <c r="M115" s="119"/>
       <c r="N115" s="25"/>
     </row>
-    <row r="116" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="218"/>
-      <c r="B116" s="213"/>
+    <row r="116" spans="1:14" ht="30" customHeight="1">
+      <c r="A116" s="215"/>
+      <c r="B116" s="211"/>
       <c r="C116" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="21"/>
@@ -6332,11 +6360,11 @@
       <c r="M116" s="119"/>
       <c r="N116" s="25"/>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="218"/>
-      <c r="B117" s="213"/>
+    <row r="117" spans="1:14" ht="15" customHeight="1">
+      <c r="A117" s="215"/>
+      <c r="B117" s="211"/>
       <c r="C117" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D117" s="72"/>
       <c r="E117" s="2"/>
@@ -6350,11 +6378,11 @@
       <c r="M117" s="137"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="218"/>
-      <c r="B118" s="213"/>
+    <row r="118" spans="1:14" ht="30" customHeight="1">
+      <c r="A118" s="215"/>
+      <c r="B118" s="211"/>
       <c r="C118" s="153" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="29"/>
@@ -6368,11 +6396,11 @@
       <c r="M118" s="119"/>
       <c r="N118" s="25"/>
     </row>
-    <row r="119" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="219"/>
-      <c r="B119" s="214"/>
+    <row r="119" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A119" s="216"/>
+      <c r="B119" s="212"/>
       <c r="C119" s="155" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
@@ -6386,12 +6414,12 @@
       <c r="M119" s="120"/>
       <c r="N119" s="26"/>
     </row>
-    <row r="120" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="220" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="220"/>
-      <c r="C120" s="220"/>
+    <row r="120" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A120" s="221" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="221"/>
+      <c r="C120" s="221"/>
       <c r="D120" s="70"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
@@ -6404,15 +6432,15 @@
       <c r="M120" s="42"/>
       <c r="N120" s="45"/>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="218" t="s">
-        <v>321</v>
-      </c>
-      <c r="B121" s="213" t="s">
-        <v>108</v>
+    <row r="121" spans="1:14" ht="15" customHeight="1">
+      <c r="A121" s="215" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" s="211" t="s">
+        <v>199</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D121" s="71"/>
       <c r="E121" s="3"/>
@@ -6426,11 +6454,11 @@
       <c r="M121" s="136"/>
       <c r="N121" s="44"/>
     </row>
-    <row r="122" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="218"/>
-      <c r="B122" s="213"/>
+    <row r="122" spans="1:14" ht="30" customHeight="1">
+      <c r="A122" s="215"/>
+      <c r="B122" s="211"/>
       <c r="C122" s="154" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="29"/>
@@ -6444,11 +6472,11 @@
       <c r="M122" s="147"/>
       <c r="N122" s="25"/>
     </row>
-    <row r="123" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="218"/>
-      <c r="B123" s="213"/>
+    <row r="123" spans="1:14" ht="30" customHeight="1">
+      <c r="A123" s="215"/>
+      <c r="B123" s="211"/>
       <c r="C123" s="154" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
@@ -6462,13 +6490,13 @@
       <c r="M123" s="119"/>
       <c r="N123" s="25"/>
     </row>
-    <row r="124" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="218"/>
+    <row r="124" spans="1:14" ht="30" customHeight="1">
+      <c r="A124" s="215"/>
       <c r="B124" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C124" s="154" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
@@ -6482,13 +6510,13 @@
       <c r="M124" s="119"/>
       <c r="N124" s="25"/>
     </row>
-    <row r="125" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="218"/>
-      <c r="B125" s="216" t="s">
-        <v>194</v>
+    <row r="125" spans="1:14" ht="30" customHeight="1">
+      <c r="A125" s="215"/>
+      <c r="B125" s="219" t="s">
+        <v>203</v>
       </c>
       <c r="C125" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="21"/>
@@ -6502,11 +6530,11 @@
       <c r="M125" s="119"/>
       <c r="N125" s="25"/>
     </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="218"/>
-      <c r="B126" s="216"/>
+    <row r="126" spans="1:14" ht="15" customHeight="1">
+      <c r="A126" s="215"/>
+      <c r="B126" s="219"/>
       <c r="C126" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D126" s="72"/>
       <c r="E126" s="2"/>
@@ -6520,11 +6548,11 @@
       <c r="M126" s="137"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="218"/>
-      <c r="B127" s="216"/>
+    <row r="127" spans="1:14" ht="30" customHeight="1">
+      <c r="A127" s="215"/>
+      <c r="B127" s="219"/>
       <c r="C127" s="153" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="29"/>
@@ -6538,13 +6566,13 @@
       <c r="M127" s="119"/>
       <c r="N127" s="25"/>
     </row>
-    <row r="128" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="218"/>
+    <row r="128" spans="1:14" ht="30" customHeight="1">
+      <c r="A128" s="215"/>
       <c r="B128" s="32" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C128" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="21"/>
@@ -6558,13 +6586,13 @@
       <c r="M128" s="125"/>
       <c r="N128" s="28"/>
     </row>
-    <row r="129" spans="1:14" s="187" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="218"/>
-      <c r="B129" s="212" t="s">
-        <v>253</v>
+    <row r="129" spans="1:14" s="186" customFormat="1" ht="15" customHeight="1">
+      <c r="A129" s="215"/>
+      <c r="B129" s="210" t="s">
+        <v>206</v>
       </c>
       <c r="C129" s="90" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D129" s="23"/>
       <c r="E129" s="85"/>
@@ -6578,11 +6606,11 @@
       <c r="M129" s="140"/>
       <c r="N129" s="81"/>
     </row>
-    <row r="130" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="218"/>
-      <c r="B130" s="213"/>
+    <row r="130" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A130" s="215"/>
+      <c r="B130" s="211"/>
       <c r="C130" s="158" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="29"/>
@@ -6596,11 +6624,11 @@
       <c r="M130" s="118"/>
       <c r="N130" s="84"/>
     </row>
-    <row r="131" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="218"/>
-      <c r="B131" s="213"/>
+    <row r="131" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A131" s="215"/>
+      <c r="B131" s="211"/>
       <c r="C131" s="159" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="20"/>
@@ -6614,11 +6642,11 @@
       <c r="M131" s="119"/>
       <c r="N131" s="79"/>
     </row>
-    <row r="132" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="218"/>
-      <c r="B132" s="213"/>
+    <row r="132" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A132" s="215"/>
+      <c r="B132" s="211"/>
       <c r="C132" s="160" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="D132" s="82"/>
       <c r="E132" s="20"/>
@@ -6632,11 +6660,11 @@
       <c r="M132" s="119"/>
       <c r="N132" s="79"/>
     </row>
-    <row r="133" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="218"/>
-      <c r="B133" s="213"/>
+    <row r="133" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1">
+      <c r="A133" s="215"/>
+      <c r="B133" s="211"/>
       <c r="C133" s="161" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D133" s="91"/>
       <c r="E133" s="20"/>
@@ -6650,11 +6678,11 @@
       <c r="M133" s="125"/>
       <c r="N133" s="80"/>
     </row>
-    <row r="134" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="218"/>
-      <c r="B134" s="213"/>
+    <row r="134" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1">
+      <c r="A134" s="215"/>
+      <c r="B134" s="211"/>
       <c r="C134" s="161" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D134" s="91"/>
       <c r="E134" s="20"/>
@@ -6668,11 +6696,11 @@
       <c r="M134" s="125"/>
       <c r="N134" s="80"/>
     </row>
-    <row r="135" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="218"/>
-      <c r="B135" s="213"/>
+    <row r="135" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1">
+      <c r="A135" s="215"/>
+      <c r="B135" s="211"/>
       <c r="C135" s="162" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="21"/>
@@ -6686,11 +6714,11 @@
       <c r="M135" s="120"/>
       <c r="N135" s="80"/>
     </row>
-    <row r="136" spans="1:14" s="187" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="218"/>
-      <c r="B136" s="213"/>
+    <row r="136" spans="1:14" s="186" customFormat="1" ht="15" customHeight="1">
+      <c r="A136" s="215"/>
+      <c r="B136" s="211"/>
       <c r="C136" s="83" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="85"/>
@@ -6704,11 +6732,11 @@
       <c r="M136" s="140"/>
       <c r="N136" s="81"/>
     </row>
-    <row r="137" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="218"/>
-      <c r="B137" s="213"/>
+    <row r="137" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A137" s="215"/>
+      <c r="B137" s="211"/>
       <c r="C137" s="158" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="29"/>
@@ -6722,11 +6750,11 @@
       <c r="M137" s="118"/>
       <c r="N137" s="84"/>
     </row>
-    <row r="138" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="218"/>
-      <c r="B138" s="213"/>
+    <row r="138" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A138" s="215"/>
+      <c r="B138" s="211"/>
       <c r="C138" s="154" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D138" s="92"/>
       <c r="E138" s="20"/>
@@ -6740,11 +6768,11 @@
       <c r="M138" s="119"/>
       <c r="N138" s="79"/>
     </row>
-    <row r="139" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="218"/>
-      <c r="B139" s="213"/>
+    <row r="139" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A139" s="215"/>
+      <c r="B139" s="211"/>
       <c r="C139" s="161" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="20"/>
@@ -6758,11 +6786,11 @@
       <c r="M139" s="132"/>
       <c r="N139" s="74"/>
     </row>
-    <row r="140" spans="1:14" s="188" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="219"/>
-      <c r="B140" s="214"/>
+    <row r="140" spans="1:14" s="187" customFormat="1" ht="30" customHeight="1">
+      <c r="A140" s="216"/>
+      <c r="B140" s="212"/>
       <c r="C140" s="163" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D140" s="38"/>
       <c r="E140" s="21"/>
@@ -6776,12 +6804,12 @@
       <c r="M140" s="120"/>
       <c r="N140" s="88"/>
     </row>
-    <row r="141" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="220" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="220"/>
-      <c r="C141" s="220"/>
+    <row r="141" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A141" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="221"/>
+      <c r="C141" s="221"/>
       <c r="D141" s="75"/>
       <c r="E141" s="66"/>
       <c r="F141" s="66"/>
@@ -6794,15 +6822,15 @@
       <c r="M141" s="66"/>
       <c r="N141" s="66"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" s="213" t="s">
-        <v>114</v>
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A142" s="215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="211" t="s">
+        <v>217</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="3"/>
@@ -6816,11 +6844,11 @@
       <c r="M142" s="136"/>
       <c r="N142" s="44"/>
     </row>
-    <row r="143" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="218"/>
-      <c r="B143" s="213"/>
+    <row r="143" spans="1:14" ht="30" customHeight="1">
+      <c r="A143" s="215"/>
+      <c r="B143" s="211"/>
       <c r="C143" s="153" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D143" s="20"/>
       <c r="E143" s="29"/>
@@ -6834,13 +6862,13 @@
       <c r="M143" s="119"/>
       <c r="N143" s="25"/>
     </row>
-    <row r="144" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="218"/>
+    <row r="144" spans="1:14" ht="30" customHeight="1">
+      <c r="A144" s="215"/>
       <c r="B144" s="33" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C144" s="154" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
@@ -6854,13 +6882,13 @@
       <c r="M144" s="119"/>
       <c r="N144" s="25"/>
     </row>
-    <row r="145" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="218"/>
-      <c r="B145" s="216" t="s">
-        <v>195</v>
+    <row r="145" spans="1:14" ht="30" customHeight="1">
+      <c r="A145" s="215"/>
+      <c r="B145" s="219" t="s">
+        <v>220</v>
       </c>
       <c r="C145" s="154" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
@@ -6874,11 +6902,11 @@
       <c r="M145" s="119"/>
       <c r="N145" s="25"/>
     </row>
-    <row r="146" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="218"/>
-      <c r="B146" s="216"/>
+    <row r="146" spans="1:14" ht="30" customHeight="1">
+      <c r="A146" s="215"/>
+      <c r="B146" s="219"/>
       <c r="C146" s="154" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
@@ -6892,11 +6920,11 @@
       <c r="M146" s="119"/>
       <c r="N146" s="25"/>
     </row>
-    <row r="147" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="218"/>
-      <c r="B147" s="216"/>
+    <row r="147" spans="1:14" ht="30" customHeight="1">
+      <c r="A147" s="215"/>
+      <c r="B147" s="219"/>
       <c r="C147" s="154" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
@@ -6910,13 +6938,13 @@
       <c r="M147" s="119"/>
       <c r="N147" s="25"/>
     </row>
-    <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="218"/>
-      <c r="B148" s="221" t="s">
-        <v>196</v>
+    <row r="148" spans="1:14" ht="30" customHeight="1">
+      <c r="A148" s="215"/>
+      <c r="B148" s="217" t="s">
+        <v>224</v>
       </c>
       <c r="C148" s="154" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
@@ -6930,11 +6958,11 @@
       <c r="M148" s="119"/>
       <c r="N148" s="25"/>
     </row>
-    <row r="149" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="218"/>
-      <c r="B149" s="221"/>
+    <row r="149" spans="1:14" ht="30" customHeight="1">
+      <c r="A149" s="215"/>
+      <c r="B149" s="217"/>
       <c r="C149" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D149" s="20"/>
       <c r="E149" s="21"/>
@@ -6948,11 +6976,11 @@
       <c r="M149" s="119"/>
       <c r="N149" s="25"/>
     </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="218"/>
-      <c r="B150" s="221"/>
+    <row r="150" spans="1:14" ht="15" customHeight="1">
+      <c r="A150" s="215"/>
+      <c r="B150" s="217"/>
       <c r="C150" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D150" s="72"/>
       <c r="E150" s="2"/>
@@ -6966,11 +6994,11 @@
       <c r="M150" s="137"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="218"/>
-      <c r="B151" s="221"/>
+    <row r="151" spans="1:14" ht="30" customHeight="1">
+      <c r="A151" s="215"/>
+      <c r="B151" s="217"/>
       <c r="C151" s="153" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="D151" s="20"/>
       <c r="E151" s="29"/>
@@ -6984,11 +7012,11 @@
       <c r="M151" s="119"/>
       <c r="N151" s="25"/>
     </row>
-    <row r="152" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="218"/>
-      <c r="B152" s="222"/>
+    <row r="152" spans="1:14" ht="30" customHeight="1">
+      <c r="A152" s="215"/>
+      <c r="B152" s="218"/>
       <c r="C152" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
@@ -7002,13 +7030,13 @@
       <c r="M152" s="120"/>
       <c r="N152" s="26"/>
     </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="218"/>
-      <c r="B153" s="212" t="s">
-        <v>188</v>
+    <row r="153" spans="1:14" ht="15" customHeight="1">
+      <c r="A153" s="215"/>
+      <c r="B153" s="210" t="s">
+        <v>227</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D153" s="72"/>
       <c r="E153" s="2"/>
@@ -7022,11 +7050,11 @@
       <c r="M153" s="137"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="218"/>
-      <c r="B154" s="213"/>
+    <row r="154" spans="1:14" ht="30" customHeight="1">
+      <c r="A154" s="215"/>
+      <c r="B154" s="211"/>
       <c r="C154" s="153" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="29"/>
@@ -7040,13 +7068,13 @@
       <c r="M154" s="119"/>
       <c r="N154" s="25"/>
     </row>
-    <row r="155" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="218"/>
+    <row r="155" spans="1:14" ht="30" customHeight="1">
+      <c r="A155" s="215"/>
       <c r="B155" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C155" s="153" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
@@ -7060,13 +7088,13 @@
       <c r="M155" s="119"/>
       <c r="N155" s="25"/>
     </row>
-    <row r="156" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="218"/>
-      <c r="B156" s="216" t="s">
-        <v>197</v>
+    <row r="156" spans="1:14" ht="30" customHeight="1">
+      <c r="A156" s="215"/>
+      <c r="B156" s="219" t="s">
+        <v>230</v>
       </c>
       <c r="C156" s="154" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
@@ -7080,11 +7108,11 @@
       <c r="M156" s="119"/>
       <c r="N156" s="25"/>
     </row>
-    <row r="157" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="218"/>
-      <c r="B157" s="216"/>
+    <row r="157" spans="1:14" ht="30" customHeight="1">
+      <c r="A157" s="215"/>
+      <c r="B157" s="219"/>
       <c r="C157" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D157" s="20"/>
       <c r="E157" s="21"/>
@@ -7098,11 +7126,11 @@
       <c r="M157" s="119"/>
       <c r="N157" s="25"/>
     </row>
-    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="218"/>
-      <c r="B158" s="216"/>
+    <row r="158" spans="1:14" ht="15" customHeight="1">
+      <c r="A158" s="215"/>
+      <c r="B158" s="219"/>
       <c r="C158" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D158" s="72"/>
       <c r="E158" s="2"/>
@@ -7116,11 +7144,11 @@
       <c r="M158" s="137"/>
       <c r="N158" s="8"/>
     </row>
-    <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="218"/>
-      <c r="B159" s="216"/>
+    <row r="159" spans="1:14" ht="30" customHeight="1">
+      <c r="A159" s="215"/>
+      <c r="B159" s="219"/>
       <c r="C159" s="153" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="D159" s="20"/>
       <c r="E159" s="29"/>
@@ -7134,11 +7162,11 @@
       <c r="M159" s="119"/>
       <c r="N159" s="25"/>
     </row>
-    <row r="160" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="218"/>
-      <c r="B160" s="216"/>
+    <row r="160" spans="1:14" ht="30" customHeight="1">
+      <c r="A160" s="215"/>
+      <c r="B160" s="219"/>
       <c r="C160" s="34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="20"/>
@@ -7152,11 +7180,11 @@
       <c r="M160" s="125"/>
       <c r="N160" s="28"/>
     </row>
-    <row r="161" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="218"/>
-      <c r="B161" s="235"/>
+    <row r="161" spans="1:14" ht="30" customHeight="1">
+      <c r="A161" s="215"/>
+      <c r="B161" s="234"/>
       <c r="C161" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
@@ -7170,13 +7198,13 @@
       <c r="M161" s="120"/>
       <c r="N161" s="26"/>
     </row>
-    <row r="162" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="218"/>
-      <c r="B162" s="212" t="s">
-        <v>116</v>
+    <row r="162" spans="1:14" ht="15" customHeight="1">
+      <c r="A162" s="215"/>
+      <c r="B162" s="210" t="s">
+        <v>234</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D162" s="72"/>
       <c r="E162" s="2"/>
@@ -7190,11 +7218,11 @@
       <c r="M162" s="137"/>
       <c r="N162" s="8"/>
     </row>
-    <row r="163" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="218"/>
-      <c r="B163" s="213"/>
+    <row r="163" spans="1:14" ht="30" customHeight="1">
+      <c r="A163" s="215"/>
+      <c r="B163" s="211"/>
       <c r="C163" s="153" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="D163" s="20"/>
       <c r="E163" s="29"/>
@@ -7208,13 +7236,13 @@
       <c r="M163" s="119"/>
       <c r="N163" s="25"/>
     </row>
-    <row r="164" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="218"/>
+    <row r="164" spans="1:14" ht="30" customHeight="1">
+      <c r="A164" s="215"/>
       <c r="B164" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C164" s="154" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
@@ -7228,13 +7256,13 @@
       <c r="M164" s="119"/>
       <c r="N164" s="25"/>
     </row>
-    <row r="165" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="218"/>
+    <row r="165" spans="1:14" ht="30" customHeight="1">
+      <c r="A165" s="215"/>
       <c r="B165" s="32" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="C165" s="154" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
@@ -7248,13 +7276,13 @@
       <c r="M165" s="119"/>
       <c r="N165" s="25"/>
     </row>
-    <row r="166" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="218"/>
-      <c r="B166" s="216" t="s">
-        <v>198</v>
+    <row r="166" spans="1:14" ht="30" customHeight="1">
+      <c r="A166" s="215"/>
+      <c r="B166" s="219" t="s">
+        <v>239</v>
       </c>
       <c r="C166" s="154" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
@@ -7268,11 +7296,11 @@
       <c r="M166" s="119"/>
       <c r="N166" s="25"/>
     </row>
-    <row r="167" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="218"/>
-      <c r="B167" s="216"/>
+    <row r="167" spans="1:14" ht="30" customHeight="1">
+      <c r="A167" s="215"/>
+      <c r="B167" s="219"/>
       <c r="C167" s="154" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -7286,11 +7314,11 @@
       <c r="M167" s="119"/>
       <c r="N167" s="25"/>
     </row>
-    <row r="168" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="218"/>
-      <c r="B168" s="216"/>
+    <row r="168" spans="1:14" ht="30" customHeight="1">
+      <c r="A168" s="215"/>
+      <c r="B168" s="219"/>
       <c r="C168" s="154" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
@@ -7304,11 +7332,11 @@
       <c r="M168" s="119"/>
       <c r="N168" s="25"/>
     </row>
-    <row r="169" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="218"/>
-      <c r="B169" s="216"/>
+    <row r="169" spans="1:14" ht="30" customHeight="1">
+      <c r="A169" s="215"/>
+      <c r="B169" s="219"/>
       <c r="C169" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D169" s="20"/>
       <c r="E169" s="21"/>
@@ -7322,11 +7350,11 @@
       <c r="M169" s="119"/>
       <c r="N169" s="25"/>
     </row>
-    <row r="170" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="218"/>
-      <c r="B170" s="216"/>
+    <row r="170" spans="1:14" ht="15" customHeight="1">
+      <c r="A170" s="215"/>
+      <c r="B170" s="219"/>
       <c r="C170" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D170" s="72"/>
       <c r="E170" s="2"/>
@@ -7340,11 +7368,11 @@
       <c r="M170" s="137"/>
       <c r="N170" s="8"/>
     </row>
-    <row r="171" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="218"/>
-      <c r="B171" s="216"/>
+    <row r="171" spans="1:14" ht="30" customHeight="1">
+      <c r="A171" s="215"/>
+      <c r="B171" s="219"/>
       <c r="C171" s="153" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D171" s="20"/>
       <c r="E171" s="29"/>
@@ -7358,11 +7386,11 @@
       <c r="M171" s="119"/>
       <c r="N171" s="25"/>
     </row>
-    <row r="172" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="218"/>
-      <c r="B172" s="216"/>
+    <row r="172" spans="1:14" ht="30" customHeight="1">
+      <c r="A172" s="215"/>
+      <c r="B172" s="219"/>
       <c r="C172" s="154" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
@@ -7376,11 +7404,11 @@
       <c r="M172" s="119"/>
       <c r="N172" s="25"/>
     </row>
-    <row r="173" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="218"/>
-      <c r="B173" s="235"/>
+    <row r="173" spans="1:14" ht="30" customHeight="1">
+      <c r="A173" s="215"/>
+      <c r="B173" s="234"/>
       <c r="C173" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
@@ -7394,13 +7422,13 @@
       <c r="M173" s="120"/>
       <c r="N173" s="26"/>
     </row>
-    <row r="174" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="218"/>
-      <c r="B174" s="212" t="s">
-        <v>126</v>
+    <row r="174" spans="1:14" ht="15" customHeight="1">
+      <c r="A174" s="215"/>
+      <c r="B174" s="210" t="s">
+        <v>245</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="D174" s="72"/>
       <c r="E174" s="2"/>
@@ -7414,11 +7442,11 @@
       <c r="M174" s="137"/>
       <c r="N174" s="8"/>
     </row>
-    <row r="175" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="218"/>
-      <c r="B175" s="213"/>
+    <row r="175" spans="1:14" ht="30" customHeight="1">
+      <c r="A175" s="215"/>
+      <c r="B175" s="211"/>
       <c r="C175" s="153" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D175" s="20"/>
       <c r="E175" s="29"/>
@@ -7432,11 +7460,11 @@
       <c r="M175" s="119"/>
       <c r="N175" s="25"/>
     </row>
-    <row r="176" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="218"/>
-      <c r="B176" s="213"/>
+    <row r="176" spans="1:14" ht="30" customHeight="1">
+      <c r="A176" s="215"/>
+      <c r="B176" s="211"/>
       <c r="C176" s="153" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
@@ -7450,11 +7478,11 @@
       <c r="M176" s="119"/>
       <c r="N176" s="25"/>
     </row>
-    <row r="177" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="218"/>
-      <c r="B177" s="213"/>
+    <row r="177" spans="1:14" ht="30" customHeight="1">
+      <c r="A177" s="215"/>
+      <c r="B177" s="211"/>
       <c r="C177" s="154" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
@@ -7468,11 +7496,11 @@
       <c r="M177" s="119"/>
       <c r="N177" s="25"/>
     </row>
-    <row r="178" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="218"/>
-      <c r="B178" s="213"/>
+    <row r="178" spans="1:14" ht="30" customHeight="1">
+      <c r="A178" s="215"/>
+      <c r="B178" s="211"/>
       <c r="C178" s="154" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
@@ -7486,11 +7514,11 @@
       <c r="M178" s="119"/>
       <c r="N178" s="25"/>
     </row>
-    <row r="179" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="218"/>
-      <c r="B179" s="213"/>
+    <row r="179" spans="1:14" ht="30" customHeight="1">
+      <c r="A179" s="215"/>
+      <c r="B179" s="211"/>
       <c r="C179" s="154" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
@@ -7504,11 +7532,11 @@
       <c r="M179" s="119"/>
       <c r="N179" s="25"/>
     </row>
-    <row r="180" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="218"/>
-      <c r="B180" s="213"/>
+    <row r="180" spans="1:14" ht="30" customHeight="1">
+      <c r="A180" s="215"/>
+      <c r="B180" s="211"/>
       <c r="C180" s="154" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
@@ -7522,11 +7550,11 @@
       <c r="M180" s="119"/>
       <c r="N180" s="25"/>
     </row>
-    <row r="181" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="218"/>
-      <c r="B181" s="213"/>
+    <row r="181" spans="1:14" ht="30" customHeight="1">
+      <c r="A181" s="215"/>
+      <c r="B181" s="211"/>
       <c r="C181" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D181" s="20"/>
       <c r="E181" s="21"/>
@@ -7540,11 +7568,11 @@
       <c r="M181" s="119"/>
       <c r="N181" s="25"/>
     </row>
-    <row r="182" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="218"/>
-      <c r="B182" s="213"/>
+    <row r="182" spans="1:14" ht="15" customHeight="1">
+      <c r="A182" s="215"/>
+      <c r="B182" s="211"/>
       <c r="C182" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D182" s="72"/>
       <c r="E182" s="2"/>
@@ -7558,11 +7586,11 @@
       <c r="M182" s="137"/>
       <c r="N182" s="8"/>
     </row>
-    <row r="183" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="218"/>
-      <c r="B183" s="213"/>
+    <row r="183" spans="1:14" ht="30" customHeight="1">
+      <c r="A183" s="215"/>
+      <c r="B183" s="211"/>
       <c r="C183" s="153" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="D183" s="20"/>
       <c r="E183" s="29"/>
@@ -7576,11 +7604,11 @@
       <c r="M183" s="119"/>
       <c r="N183" s="25"/>
     </row>
-    <row r="184" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="219"/>
-      <c r="B184" s="214"/>
+    <row r="184" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A184" s="216"/>
+      <c r="B184" s="212"/>
       <c r="C184" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="21"/>
@@ -7594,12 +7622,12 @@
       <c r="M184" s="128"/>
       <c r="N184" s="10"/>
     </row>
-    <row r="185" spans="1:14" s="186" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="220" t="s">
-        <v>134</v>
-      </c>
-      <c r="B185" s="220"/>
-      <c r="C185" s="220"/>
+    <row r="185" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1">
+      <c r="A185" s="221" t="s">
+        <v>254</v>
+      </c>
+      <c r="B185" s="221"/>
+      <c r="C185" s="221"/>
       <c r="D185" s="70"/>
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
@@ -7612,15 +7640,15 @@
       <c r="M185" s="42"/>
       <c r="N185" s="45"/>
     </row>
-    <row r="186" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="218" t="s">
-        <v>135</v>
-      </c>
-      <c r="B186" s="234" t="s">
-        <v>136</v>
+    <row r="186" spans="1:14" ht="15" customHeight="1">
+      <c r="A186" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="B186" s="233" t="s">
+        <v>256</v>
       </c>
       <c r="C186" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D186" s="71"/>
       <c r="E186" s="3"/>
@@ -7634,11 +7662,11 @@
       <c r="M186" s="136"/>
       <c r="N186" s="44"/>
     </row>
-    <row r="187" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="218"/>
-      <c r="B187" s="234"/>
+    <row r="187" spans="1:14" ht="40.5" customHeight="1">
+      <c r="A187" s="215"/>
+      <c r="B187" s="233"/>
       <c r="C187" s="153" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="D187" s="20"/>
       <c r="E187" s="29"/>
@@ -7652,11 +7680,11 @@
       <c r="M187" s="147"/>
       <c r="N187" s="25"/>
     </row>
-    <row r="188" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="218"/>
-      <c r="B188" s="234"/>
+    <row r="188" spans="1:14" ht="30" customHeight="1">
+      <c r="A188" s="215"/>
+      <c r="B188" s="233"/>
       <c r="C188" s="154" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
@@ -7670,11 +7698,11 @@
       <c r="M188" s="119"/>
       <c r="N188" s="25"/>
     </row>
-    <row r="189" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="218"/>
-      <c r="B189" s="234"/>
+    <row r="189" spans="1:14" ht="30" customHeight="1">
+      <c r="A189" s="215"/>
+      <c r="B189" s="233"/>
       <c r="C189" s="154" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
@@ -7688,11 +7716,11 @@
       <c r="M189" s="147"/>
       <c r="N189" s="25"/>
     </row>
-    <row r="190" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="218"/>
-      <c r="B190" s="234"/>
+    <row r="190" spans="1:14" ht="30" customHeight="1">
+      <c r="A190" s="215"/>
+      <c r="B190" s="233"/>
       <c r="C190" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D190" s="20"/>
       <c r="E190" s="21"/>
@@ -7706,11 +7734,11 @@
       <c r="M190" s="119"/>
       <c r="N190" s="25"/>
     </row>
-    <row r="191" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="218"/>
-      <c r="B191" s="234"/>
+    <row r="191" spans="1:14" ht="15" customHeight="1">
+      <c r="A191" s="215"/>
+      <c r="B191" s="233"/>
       <c r="C191" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D191" s="72"/>
       <c r="E191" s="2"/>
@@ -7724,11 +7752,11 @@
       <c r="M191" s="137"/>
       <c r="N191" s="8"/>
     </row>
-    <row r="192" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="218"/>
-      <c r="B192" s="234"/>
+    <row r="192" spans="1:14" ht="30" customHeight="1">
+      <c r="A192" s="215"/>
+      <c r="B192" s="233"/>
       <c r="C192" s="153" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="D192" s="20"/>
       <c r="E192" s="29"/>
@@ -7742,11 +7770,11 @@
       <c r="M192" s="119"/>
       <c r="N192" s="25"/>
     </row>
-    <row r="193" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="218"/>
-      <c r="B193" s="234"/>
+    <row r="193" spans="1:14" ht="30" customHeight="1">
+      <c r="A193" s="215"/>
+      <c r="B193" s="233"/>
       <c r="C193" s="154" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="D193" s="20"/>
       <c r="E193" s="20"/>
@@ -7760,11 +7788,11 @@
       <c r="M193" s="119"/>
       <c r="N193" s="25"/>
     </row>
-    <row r="194" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="218"/>
-      <c r="B194" s="234"/>
+    <row r="194" spans="1:14" ht="30" customHeight="1">
+      <c r="A194" s="215"/>
+      <c r="B194" s="233"/>
       <c r="C194" s="154" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
@@ -7778,11 +7806,11 @@
       <c r="M194" s="119"/>
       <c r="N194" s="25"/>
     </row>
-    <row r="195" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="218"/>
-      <c r="B195" s="232"/>
+    <row r="195" spans="1:14" ht="30" customHeight="1">
+      <c r="A195" s="215"/>
+      <c r="B195" s="231"/>
       <c r="C195" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
@@ -7796,13 +7824,13 @@
       <c r="M195" s="120"/>
       <c r="N195" s="26"/>
     </row>
-    <row r="196" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="218"/>
-      <c r="B196" s="212" t="s">
-        <v>141</v>
+    <row r="196" spans="1:14" ht="15" customHeight="1">
+      <c r="A196" s="215"/>
+      <c r="B196" s="210" t="s">
+        <v>263</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D196" s="72"/>
       <c r="E196" s="2"/>
@@ -7816,11 +7844,11 @@
       <c r="M196" s="137"/>
       <c r="N196" s="8"/>
     </row>
-    <row r="197" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="218"/>
-      <c r="B197" s="213"/>
+    <row r="197" spans="1:14" ht="30" customHeight="1">
+      <c r="A197" s="215"/>
+      <c r="B197" s="211"/>
       <c r="C197" s="153" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="D197" s="20"/>
       <c r="E197" s="29"/>
@@ -7834,11 +7862,11 @@
       <c r="M197" s="119"/>
       <c r="N197" s="25"/>
     </row>
-    <row r="198" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="218"/>
-      <c r="B198" s="213"/>
+    <row r="198" spans="1:14" ht="30" customHeight="1">
+      <c r="A198" s="215"/>
+      <c r="B198" s="211"/>
       <c r="C198" s="154" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
@@ -7852,11 +7880,11 @@
       <c r="M198" s="119"/>
       <c r="N198" s="25"/>
     </row>
-    <row r="199" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="218"/>
-      <c r="B199" s="213"/>
+    <row r="199" spans="1:14" ht="30" customHeight="1">
+      <c r="A199" s="215"/>
+      <c r="B199" s="211"/>
       <c r="C199" s="154" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
@@ -7870,11 +7898,11 @@
       <c r="M199" s="119"/>
       <c r="N199" s="25"/>
     </row>
-    <row r="200" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="218"/>
-      <c r="B200" s="213"/>
+    <row r="200" spans="1:14" ht="30" customHeight="1">
+      <c r="A200" s="215"/>
+      <c r="B200" s="211"/>
       <c r="C200" s="154" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D200" s="20"/>
       <c r="E200" s="20"/>
@@ -7888,11 +7916,11 @@
       <c r="M200" s="119"/>
       <c r="N200" s="25"/>
     </row>
-    <row r="201" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="218"/>
-      <c r="B201" s="213"/>
+    <row r="201" spans="1:14" ht="30" customHeight="1">
+      <c r="A201" s="215"/>
+      <c r="B201" s="211"/>
       <c r="C201" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D201" s="20"/>
       <c r="E201" s="21"/>
@@ -7906,11 +7934,11 @@
       <c r="M201" s="119"/>
       <c r="N201" s="25"/>
     </row>
-    <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="218"/>
-      <c r="B202" s="213"/>
+    <row r="202" spans="1:14" ht="15" customHeight="1">
+      <c r="A202" s="215"/>
+      <c r="B202" s="211"/>
       <c r="C202" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D202" s="72"/>
       <c r="E202" s="2"/>
@@ -7924,11 +7952,11 @@
       <c r="M202" s="137"/>
       <c r="N202" s="8"/>
     </row>
-    <row r="203" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="218"/>
-      <c r="B203" s="213"/>
+    <row r="203" spans="1:14" ht="30" customHeight="1">
+      <c r="A203" s="215"/>
+      <c r="B203" s="211"/>
       <c r="C203" s="153" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="D203" s="20"/>
       <c r="E203" s="29"/>
@@ -7942,11 +7970,11 @@
       <c r="M203" s="119"/>
       <c r="N203" s="25"/>
     </row>
-    <row r="204" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="218"/>
-      <c r="B204" s="214"/>
+    <row r="204" spans="1:14" ht="30" customHeight="1">
+      <c r="A204" s="215"/>
+      <c r="B204" s="212"/>
       <c r="C204" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
@@ -7960,13 +7988,13 @@
       <c r="M204" s="120"/>
       <c r="N204" s="26"/>
     </row>
-    <row r="205" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="218"/>
-      <c r="B205" s="212" t="s">
-        <v>146</v>
+    <row r="205" spans="1:14" ht="15" customHeight="1">
+      <c r="A205" s="215"/>
+      <c r="B205" s="210" t="s">
+        <v>269</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D205" s="72"/>
       <c r="E205" s="2"/>
@@ -7980,11 +8008,11 @@
       <c r="M205" s="137"/>
       <c r="N205" s="8"/>
     </row>
-    <row r="206" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="218"/>
-      <c r="B206" s="213"/>
+    <row r="206" spans="1:14" ht="30" customHeight="1">
+      <c r="A206" s="215"/>
+      <c r="B206" s="211"/>
       <c r="C206" s="153" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="D206" s="20"/>
       <c r="E206" s="29"/>
@@ -7998,11 +8026,11 @@
       <c r="M206" s="119"/>
       <c r="N206" s="25"/>
     </row>
-    <row r="207" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="218"/>
-      <c r="B207" s="213"/>
+    <row r="207" spans="1:14" ht="30" customHeight="1">
+      <c r="A207" s="215"/>
+      <c r="B207" s="211"/>
       <c r="C207" s="154" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
@@ -8016,11 +8044,11 @@
       <c r="M207" s="119"/>
       <c r="N207" s="25"/>
     </row>
-    <row r="208" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="218"/>
-      <c r="B208" s="213"/>
+    <row r="208" spans="1:14" ht="30" customHeight="1">
+      <c r="A208" s="215"/>
+      <c r="B208" s="211"/>
       <c r="C208" s="154" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -8034,11 +8062,11 @@
       <c r="M208" s="119"/>
       <c r="N208" s="25"/>
     </row>
-    <row r="209" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="218"/>
-      <c r="B209" s="213"/>
+    <row r="209" spans="1:14" ht="30" customHeight="1">
+      <c r="A209" s="215"/>
+      <c r="B209" s="211"/>
       <c r="C209" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D209" s="20"/>
       <c r="E209" s="21"/>
@@ -8052,11 +8080,11 @@
       <c r="M209" s="119"/>
       <c r="N209" s="25"/>
     </row>
-    <row r="210" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="218"/>
-      <c r="B210" s="213"/>
+    <row r="210" spans="1:14" ht="15" customHeight="1">
+      <c r="A210" s="215"/>
+      <c r="B210" s="211"/>
       <c r="C210" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D210" s="72"/>
       <c r="E210" s="2"/>
@@ -8070,11 +8098,11 @@
       <c r="M210" s="137"/>
       <c r="N210" s="8"/>
     </row>
-    <row r="211" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="218"/>
-      <c r="B211" s="213"/>
+    <row r="211" spans="1:14" ht="30" customHeight="1">
+      <c r="A211" s="215"/>
+      <c r="B211" s="211"/>
       <c r="C211" s="153" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="D211" s="20"/>
       <c r="E211" s="29"/>
@@ -8088,11 +8116,11 @@
       <c r="M211" s="119"/>
       <c r="N211" s="25"/>
     </row>
-    <row r="212" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="218"/>
-      <c r="B212" s="214"/>
+    <row r="212" spans="1:14" ht="30" customHeight="1">
+      <c r="A212" s="215"/>
+      <c r="B212" s="212"/>
       <c r="C212" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
@@ -8106,13 +8134,13 @@
       <c r="M212" s="120"/>
       <c r="N212" s="26"/>
     </row>
-    <row r="213" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="218"/>
-      <c r="B213" s="212" t="s">
-        <v>150</v>
+    <row r="213" spans="1:14" ht="15" customHeight="1">
+      <c r="A213" s="215"/>
+      <c r="B213" s="210" t="s">
+        <v>274</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D213" s="72"/>
       <c r="E213" s="2"/>
@@ -8126,11 +8154,11 @@
       <c r="M213" s="137"/>
       <c r="N213" s="8"/>
     </row>
-    <row r="214" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="218"/>
-      <c r="B214" s="213"/>
+    <row r="214" spans="1:14" ht="30" customHeight="1">
+      <c r="A214" s="215"/>
+      <c r="B214" s="211"/>
       <c r="C214" s="153" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="D214" s="20"/>
       <c r="E214" s="29"/>
@@ -8144,11 +8172,11 @@
       <c r="M214" s="119"/>
       <c r="N214" s="25"/>
     </row>
-    <row r="215" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="218"/>
-      <c r="B215" s="213"/>
+    <row r="215" spans="1:14" ht="30" customHeight="1">
+      <c r="A215" s="215"/>
+      <c r="B215" s="211"/>
       <c r="C215" s="153" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
@@ -8162,11 +8190,11 @@
       <c r="M215" s="119"/>
       <c r="N215" s="25"/>
     </row>
-    <row r="216" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="218"/>
-      <c r="B216" s="213"/>
+    <row r="216" spans="1:14" ht="30" customHeight="1">
+      <c r="A216" s="215"/>
+      <c r="B216" s="211"/>
       <c r="C216" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D216" s="20"/>
       <c r="E216" s="21"/>
@@ -8180,11 +8208,11 @@
       <c r="M216" s="119"/>
       <c r="N216" s="25"/>
     </row>
-    <row r="217" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="218"/>
-      <c r="B217" s="213"/>
+    <row r="217" spans="1:14" ht="15" customHeight="1">
+      <c r="A217" s="215"/>
+      <c r="B217" s="211"/>
       <c r="C217" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D217" s="72"/>
       <c r="E217" s="2"/>
@@ -8198,11 +8226,11 @@
       <c r="M217" s="137"/>
       <c r="N217" s="8"/>
     </row>
-    <row r="218" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="218"/>
-      <c r="B218" s="213"/>
+    <row r="218" spans="1:14" ht="30" customHeight="1">
+      <c r="A218" s="215"/>
+      <c r="B218" s="211"/>
       <c r="C218" s="153" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="D218" s="20"/>
       <c r="E218" s="29"/>
@@ -8216,11 +8244,11 @@
       <c r="M218" s="119"/>
       <c r="N218" s="25"/>
     </row>
-    <row r="219" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="218"/>
-      <c r="B219" s="213"/>
+    <row r="219" spans="1:14" ht="30" customHeight="1">
+      <c r="A219" s="215"/>
+      <c r="B219" s="211"/>
       <c r="C219" s="34" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="D219" s="27"/>
       <c r="E219" s="20"/>
@@ -8234,11 +8262,11 @@
       <c r="M219" s="125"/>
       <c r="N219" s="28"/>
     </row>
-    <row r="220" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="218"/>
-      <c r="B220" s="214"/>
+    <row r="220" spans="1:14" ht="30" customHeight="1">
+      <c r="A220" s="215"/>
+      <c r="B220" s="212"/>
       <c r="C220" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
@@ -8252,13 +8280,13 @@
       <c r="M220" s="120"/>
       <c r="N220" s="26"/>
     </row>
-    <row r="221" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="218"/>
-      <c r="B221" s="212" t="s">
-        <v>151</v>
+    <row r="221" spans="1:14" ht="15" customHeight="1">
+      <c r="A221" s="215"/>
+      <c r="B221" s="210" t="s">
+        <v>279</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D221" s="72"/>
       <c r="E221" s="2"/>
@@ -8272,11 +8300,11 @@
       <c r="M221" s="137"/>
       <c r="N221" s="8"/>
     </row>
-    <row r="222" spans="1:14" s="190" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="218"/>
-      <c r="B222" s="213"/>
+    <row r="222" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1">
+      <c r="A222" s="215"/>
+      <c r="B222" s="211"/>
       <c r="C222" s="153" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="D222" s="19"/>
       <c r="E222" s="29"/>
@@ -8290,11 +8318,11 @@
       <c r="M222" s="121"/>
       <c r="N222" s="24"/>
     </row>
-    <row r="223" spans="1:14" s="190" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="218"/>
-      <c r="B223" s="213"/>
+    <row r="223" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1">
+      <c r="A223" s="215"/>
+      <c r="B223" s="211"/>
       <c r="C223" s="153" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="D223" s="19"/>
       <c r="E223" s="20"/>
@@ -8308,11 +8336,11 @@
       <c r="M223" s="121"/>
       <c r="N223" s="24"/>
     </row>
-    <row r="224" spans="1:14" s="190" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="218"/>
-      <c r="B224" s="213"/>
+    <row r="224" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1">
+      <c r="A224" s="215"/>
+      <c r="B224" s="211"/>
       <c r="C224" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D224" s="20"/>
       <c r="E224" s="21"/>
@@ -8326,11 +8354,11 @@
       <c r="M224" s="119"/>
       <c r="N224" s="25"/>
     </row>
-    <row r="225" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="218"/>
-      <c r="B225" s="213"/>
+    <row r="225" spans="1:14" ht="15" customHeight="1">
+      <c r="A225" s="215"/>
+      <c r="B225" s="211"/>
       <c r="C225" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D225" s="72"/>
       <c r="E225" s="2"/>
@@ -8344,11 +8372,11 @@
       <c r="M225" s="137"/>
       <c r="N225" s="8"/>
     </row>
-    <row r="226" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="218"/>
-      <c r="B226" s="213"/>
+    <row r="226" spans="1:14" ht="30" customHeight="1">
+      <c r="A226" s="215"/>
+      <c r="B226" s="211"/>
       <c r="C226" s="153" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="D226" s="20"/>
       <c r="E226" s="29"/>
@@ -8362,11 +8390,11 @@
       <c r="M226" s="119"/>
       <c r="N226" s="25"/>
     </row>
-    <row r="227" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="218"/>
-      <c r="B227" s="213"/>
+    <row r="227" spans="1:14" ht="30" customHeight="1">
+      <c r="A227" s="215"/>
+      <c r="B227" s="211"/>
       <c r="C227" s="34" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="D227" s="27"/>
       <c r="E227" s="20"/>
@@ -8380,11 +8408,11 @@
       <c r="M227" s="125"/>
       <c r="N227" s="28"/>
     </row>
-    <row r="228" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="218"/>
-      <c r="B228" s="214"/>
+    <row r="228" spans="1:14" ht="30" customHeight="1">
+      <c r="A228" s="215"/>
+      <c r="B228" s="212"/>
       <c r="C228" s="156" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D228" s="27"/>
       <c r="E228" s="21"/>
@@ -8398,12 +8426,12 @@
       <c r="M228" s="125"/>
       <c r="N228" s="28"/>
     </row>
-    <row r="229" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="218"/>
-      <c r="B229" s="223" t="s">
-        <v>187</v>
-      </c>
-      <c r="C229" s="223"/>
+    <row r="229" spans="1:14" ht="30" customHeight="1">
+      <c r="A229" s="215"/>
+      <c r="B229" s="222" t="s">
+        <v>284</v>
+      </c>
+      <c r="C229" s="222"/>
       <c r="D229" s="76"/>
       <c r="E229" s="61"/>
       <c r="F229" s="61"/>
@@ -8416,13 +8444,13 @@
       <c r="M229" s="61"/>
       <c r="N229" s="62"/>
     </row>
-    <row r="230" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="218"/>
-      <c r="B230" s="212" t="s">
-        <v>152</v>
+    <row r="230" spans="1:14" ht="15" customHeight="1">
+      <c r="A230" s="215"/>
+      <c r="B230" s="210" t="s">
+        <v>285</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D230" s="72"/>
       <c r="E230" s="2"/>
@@ -8436,11 +8464,11 @@
       <c r="M230" s="137"/>
       <c r="N230" s="8"/>
     </row>
-    <row r="231" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="218"/>
-      <c r="B231" s="213"/>
+    <row r="231" spans="1:14" ht="30" customHeight="1">
+      <c r="A231" s="215"/>
+      <c r="B231" s="211"/>
       <c r="C231" s="154" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
@@ -8454,11 +8482,11 @@
       <c r="M231" s="147"/>
       <c r="N231" s="25"/>
     </row>
-    <row r="232" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="218"/>
-      <c r="B232" s="213"/>
+    <row r="232" spans="1:14" ht="30" customHeight="1">
+      <c r="A232" s="215"/>
+      <c r="B232" s="211"/>
       <c r="C232" s="154" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
@@ -8472,13 +8500,13 @@
       <c r="M232" s="147"/>
       <c r="N232" s="25"/>
     </row>
-    <row r="233" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="218"/>
+    <row r="233" spans="1:14" ht="30" customHeight="1">
+      <c r="A233" s="215"/>
       <c r="B233" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C233" s="154" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
@@ -8492,13 +8520,13 @@
       <c r="M233" s="119"/>
       <c r="N233" s="25"/>
     </row>
-    <row r="234" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="218"/>
-      <c r="B234" s="216" t="s">
-        <v>197</v>
+    <row r="234" spans="1:14" ht="30" customHeight="1">
+      <c r="A234" s="215"/>
+      <c r="B234" s="219" t="s">
+        <v>230</v>
       </c>
       <c r="C234" s="154" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="D234" s="20"/>
       <c r="E234" s="20"/>
@@ -8512,11 +8540,11 @@
       <c r="M234" s="119"/>
       <c r="N234" s="25"/>
     </row>
-    <row r="235" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="218"/>
-      <c r="B235" s="216"/>
+    <row r="235" spans="1:14" ht="30" customHeight="1">
+      <c r="A235" s="215"/>
+      <c r="B235" s="219"/>
       <c r="C235" s="154" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
@@ -8530,11 +8558,11 @@
       <c r="M235" s="119"/>
       <c r="N235" s="25"/>
     </row>
-    <row r="236" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="218"/>
-      <c r="B236" s="216"/>
+    <row r="236" spans="1:14" ht="30" customHeight="1">
+      <c r="A236" s="215"/>
+      <c r="B236" s="219"/>
       <c r="C236" s="154" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="D236" s="20"/>
       <c r="E236" s="20"/>
@@ -8548,11 +8576,11 @@
       <c r="M236" s="119"/>
       <c r="N236" s="25"/>
     </row>
-    <row r="237" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="218"/>
-      <c r="B237" s="237"/>
+    <row r="237" spans="1:14" ht="30" customHeight="1">
+      <c r="A237" s="215"/>
+      <c r="B237" s="236"/>
       <c r="C237" s="154" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
@@ -8566,11 +8594,11 @@
       <c r="M237" s="119"/>
       <c r="N237" s="25"/>
     </row>
-    <row r="238" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="218"/>
-      <c r="B238" s="237"/>
+    <row r="238" spans="1:14" ht="30" customHeight="1">
+      <c r="A238" s="215"/>
+      <c r="B238" s="236"/>
       <c r="C238" s="154" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
@@ -8584,10 +8612,10 @@
       <c r="M238" s="119"/>
       <c r="N238" s="25"/>
     </row>
-    <row r="239" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="218"/>
+    <row r="239" spans="1:14" ht="30" customHeight="1">
+      <c r="A239" s="215"/>
       <c r="C239" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D239" s="20"/>
       <c r="E239" s="21"/>
@@ -8601,10 +8629,10 @@
       <c r="M239" s="119"/>
       <c r="N239" s="25"/>
     </row>
-    <row r="240" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="218"/>
+    <row r="240" spans="1:14" ht="15" customHeight="1">
+      <c r="A240" s="215"/>
       <c r="C240" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D240" s="72"/>
       <c r="E240" s="2"/>
@@ -8618,10 +8646,10 @@
       <c r="M240" s="137"/>
       <c r="N240" s="8"/>
     </row>
-    <row r="241" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="218"/>
+    <row r="241" spans="1:14" ht="30" customHeight="1">
+      <c r="A241" s="215"/>
       <c r="C241" s="153" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="D241" s="20"/>
       <c r="E241" s="20"/>
@@ -8635,10 +8663,10 @@
       <c r="M241" s="119"/>
       <c r="N241" s="25"/>
     </row>
-    <row r="242" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="218"/>
+    <row r="242" spans="1:14" ht="30" customHeight="1">
+      <c r="A242" s="215"/>
       <c r="C242" s="154" t="s">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
@@ -8652,10 +8680,10 @@
       <c r="M242" s="119"/>
       <c r="N242" s="25"/>
     </row>
-    <row r="243" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="218"/>
+    <row r="243" spans="1:14" ht="30" customHeight="1">
+      <c r="A243" s="215"/>
       <c r="C243" s="154" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
@@ -8669,11 +8697,11 @@
       <c r="M243" s="119"/>
       <c r="N243" s="25"/>
     </row>
-    <row r="244" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="219"/>
+    <row r="244" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A244" s="216"/>
       <c r="B244" s="7"/>
       <c r="C244" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21"/>
@@ -8687,12 +8715,12 @@
       <c r="M244" s="120"/>
       <c r="N244" s="26"/>
     </row>
-    <row r="245" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="236" t="s">
-        <v>164</v>
-      </c>
-      <c r="B245" s="236"/>
-      <c r="C245" s="236"/>
+    <row r="245" spans="1:14" ht="30" customHeight="1">
+      <c r="A245" s="235" t="s">
+        <v>297</v>
+      </c>
+      <c r="B245" s="235"/>
+      <c r="C245" s="235"/>
       <c r="D245" s="77"/>
       <c r="E245" s="17"/>
       <c r="F245" s="17"/>
@@ -8705,12 +8733,12 @@
       <c r="M245" s="17"/>
       <c r="N245" s="41"/>
     </row>
-    <row r="246" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="238" t="s">
-        <v>165</v>
-      </c>
-      <c r="B246" s="238"/>
-      <c r="C246" s="238"/>
+    <row r="246" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A246" s="237" t="s">
+        <v>298</v>
+      </c>
+      <c r="B246" s="237"/>
+      <c r="C246" s="237"/>
       <c r="D246" s="70"/>
       <c r="E246" s="42"/>
       <c r="F246" s="42"/>
@@ -8723,15 +8751,15 @@
       <c r="M246" s="42"/>
       <c r="N246" s="45"/>
     </row>
-    <row r="247" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="218" t="s">
-        <v>166</v>
-      </c>
-      <c r="B247" s="213" t="s">
-        <v>167</v>
+    <row r="247" spans="1:14" ht="15" customHeight="1">
+      <c r="A247" s="215" t="s">
+        <v>299</v>
+      </c>
+      <c r="B247" s="211" t="s">
+        <v>300</v>
       </c>
       <c r="C247" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D247" s="71"/>
       <c r="E247" s="3"/>
@@ -8745,11 +8773,11 @@
       <c r="M247" s="136"/>
       <c r="N247" s="44"/>
     </row>
-    <row r="248" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="218"/>
-      <c r="B248" s="213"/>
+    <row r="248" spans="1:14" ht="30" customHeight="1">
+      <c r="A248" s="215"/>
+      <c r="B248" s="211"/>
       <c r="C248" s="154" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
@@ -8763,11 +8791,11 @@
       <c r="M248" s="119"/>
       <c r="N248" s="25"/>
     </row>
-    <row r="249" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="218"/>
-      <c r="B249" s="213"/>
+    <row r="249" spans="1:14" ht="30" customHeight="1">
+      <c r="A249" s="215"/>
+      <c r="B249" s="211"/>
       <c r="C249" s="154" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="D249" s="20"/>
       <c r="E249" s="20"/>
@@ -8781,11 +8809,11 @@
       <c r="M249" s="119"/>
       <c r="N249" s="25"/>
     </row>
-    <row r="250" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="218"/>
-      <c r="B250" s="213"/>
+    <row r="250" spans="1:14" ht="30" customHeight="1">
+      <c r="A250" s="215"/>
+      <c r="B250" s="211"/>
       <c r="C250" s="154" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
@@ -8799,13 +8827,13 @@
       <c r="M250" s="119"/>
       <c r="N250" s="25"/>
     </row>
-    <row r="251" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="218"/>
+    <row r="251" spans="1:14" ht="30" customHeight="1">
+      <c r="A251" s="215"/>
       <c r="B251" s="33" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C251" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D251" s="20"/>
       <c r="E251" s="21"/>
@@ -8819,13 +8847,13 @@
       <c r="M251" s="119"/>
       <c r="N251" s="25"/>
     </row>
-    <row r="252" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="218"/>
-      <c r="B252" s="216" t="s">
-        <v>199</v>
+    <row r="252" spans="1:14" ht="15" customHeight="1">
+      <c r="A252" s="215"/>
+      <c r="B252" s="219" t="s">
+        <v>304</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D252" s="72"/>
       <c r="E252" s="2"/>
@@ -8839,11 +8867,11 @@
       <c r="M252" s="137"/>
       <c r="N252" s="8"/>
     </row>
-    <row r="253" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="218"/>
-      <c r="B253" s="216"/>
+    <row r="253" spans="1:14" ht="30" customHeight="1">
+      <c r="A253" s="215"/>
+      <c r="B253" s="219"/>
       <c r="C253" s="153" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
@@ -8857,11 +8885,11 @@
       <c r="M253" s="119"/>
       <c r="N253" s="25"/>
     </row>
-    <row r="254" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="219"/>
-      <c r="B254" s="235"/>
+    <row r="254" spans="1:14" ht="30" customHeight="1">
+      <c r="A254" s="216"/>
+      <c r="B254" s="234"/>
       <c r="C254" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="21"/>
@@ -8875,12 +8903,12 @@
       <c r="M254" s="120"/>
       <c r="N254" s="26"/>
     </row>
-    <row r="255" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="220" t="s">
-        <v>168</v>
-      </c>
-      <c r="B255" s="220"/>
-      <c r="C255" s="220"/>
+    <row r="255" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A255" s="221" t="s">
+        <v>306</v>
+      </c>
+      <c r="B255" s="221"/>
+      <c r="C255" s="221"/>
       <c r="D255" s="70"/>
       <c r="E255" s="42"/>
       <c r="F255" s="42"/>
@@ -8893,15 +8921,15 @@
       <c r="M255" s="42"/>
       <c r="N255" s="45"/>
     </row>
-    <row r="256" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="218" t="s">
-        <v>169</v>
-      </c>
-      <c r="B256" s="213" t="s">
-        <v>170</v>
+    <row r="256" spans="1:14" ht="15" customHeight="1">
+      <c r="A256" s="215" t="s">
+        <v>307</v>
+      </c>
+      <c r="B256" s="211" t="s">
+        <v>308</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D256" s="71"/>
       <c r="E256" s="3"/>
@@ -8915,11 +8943,11 @@
       <c r="M256" s="136"/>
       <c r="N256" s="44"/>
     </row>
-    <row r="257" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="218"/>
-      <c r="B257" s="213"/>
+    <row r="257" spans="1:14" ht="30" customHeight="1">
+      <c r="A257" s="215"/>
+      <c r="B257" s="211"/>
       <c r="C257" s="154" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
@@ -8933,11 +8961,11 @@
       <c r="M257" s="119"/>
       <c r="N257" s="25"/>
     </row>
-    <row r="258" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="218"/>
-      <c r="B258" s="213"/>
+    <row r="258" spans="1:14" ht="30" customHeight="1">
+      <c r="A258" s="215"/>
+      <c r="B258" s="211"/>
       <c r="C258" s="154" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
@@ -8951,11 +8979,11 @@
       <c r="M258" s="119"/>
       <c r="N258" s="25"/>
     </row>
-    <row r="259" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="218"/>
-      <c r="B259" s="213"/>
+    <row r="259" spans="1:14" ht="30" customHeight="1">
+      <c r="A259" s="215"/>
+      <c r="B259" s="211"/>
       <c r="C259" s="154" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
@@ -8969,11 +8997,11 @@
       <c r="M259" s="119"/>
       <c r="N259" s="25"/>
     </row>
-    <row r="260" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="218"/>
-      <c r="B260" s="213"/>
+    <row r="260" spans="1:14" ht="30" customHeight="1">
+      <c r="A260" s="215"/>
+      <c r="B260" s="211"/>
       <c r="C260" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D260" s="20"/>
       <c r="E260" s="21"/>
@@ -8987,11 +9015,11 @@
       <c r="M260" s="119"/>
       <c r="N260" s="25"/>
     </row>
-    <row r="261" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="218"/>
-      <c r="B261" s="213"/>
+    <row r="261" spans="1:14" ht="15" customHeight="1">
+      <c r="A261" s="215"/>
+      <c r="B261" s="211"/>
       <c r="C261" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D261" s="72"/>
       <c r="E261" s="2"/>
@@ -9005,11 +9033,11 @@
       <c r="M261" s="137"/>
       <c r="N261" s="8"/>
     </row>
-    <row r="262" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="218"/>
-      <c r="B262" s="213"/>
+    <row r="262" spans="1:14" ht="30" customHeight="1">
+      <c r="A262" s="215"/>
+      <c r="B262" s="211"/>
       <c r="C262" s="153" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="D262" s="20"/>
       <c r="E262" s="20"/>
@@ -9023,11 +9051,11 @@
       <c r="M262" s="119"/>
       <c r="N262" s="25"/>
     </row>
-    <row r="263" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="218"/>
-      <c r="B263" s="213"/>
+    <row r="263" spans="1:14" ht="30" customHeight="1">
+      <c r="A263" s="215"/>
+      <c r="B263" s="211"/>
       <c r="C263" s="154" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="D263" s="20"/>
       <c r="E263" s="20"/>
@@ -9041,11 +9069,11 @@
       <c r="M263" s="119"/>
       <c r="N263" s="25"/>
     </row>
-    <row r="264" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="218"/>
-      <c r="B264" s="214"/>
+    <row r="264" spans="1:14" ht="30" customHeight="1">
+      <c r="A264" s="215"/>
+      <c r="B264" s="212"/>
       <c r="C264" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="21"/>
@@ -9059,13 +9087,13 @@
       <c r="M264" s="120"/>
       <c r="N264" s="26"/>
     </row>
-    <row r="265" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="218"/>
-      <c r="B265" s="239" t="s">
-        <v>172</v>
+    <row r="265" spans="1:14" ht="15" customHeight="1">
+      <c r="A265" s="215"/>
+      <c r="B265" s="238" t="s">
+        <v>314</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D265" s="72"/>
       <c r="E265" s="2"/>
@@ -9079,11 +9107,11 @@
       <c r="M265" s="137"/>
       <c r="N265" s="8"/>
     </row>
-    <row r="266" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="218"/>
-      <c r="B266" s="234"/>
+    <row r="266" spans="1:14" ht="30" customHeight="1">
+      <c r="A266" s="215"/>
+      <c r="B266" s="233"/>
       <c r="C266" s="153" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="20"/>
@@ -9097,11 +9125,11 @@
       <c r="M266" s="146"/>
       <c r="N266" s="24"/>
     </row>
-    <row r="267" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="218"/>
-      <c r="B267" s="234"/>
+    <row r="267" spans="1:14" ht="30" customHeight="1">
+      <c r="A267" s="215"/>
+      <c r="B267" s="233"/>
       <c r="C267" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D267" s="20"/>
       <c r="E267" s="21"/>
@@ -9115,11 +9143,11 @@
       <c r="M267" s="119"/>
       <c r="N267" s="25"/>
     </row>
-    <row r="268" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="218"/>
-      <c r="B268" s="234"/>
+    <row r="268" spans="1:14" ht="15" customHeight="1">
+      <c r="A268" s="215"/>
+      <c r="B268" s="233"/>
       <c r="C268" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D268" s="72"/>
       <c r="E268" s="2"/>
@@ -9133,11 +9161,11 @@
       <c r="M268" s="124"/>
       <c r="N268" s="8"/>
     </row>
-    <row r="269" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="218"/>
-      <c r="B269" s="234"/>
+    <row r="269" spans="1:14" ht="30" customHeight="1">
+      <c r="A269" s="215"/>
+      <c r="B269" s="233"/>
       <c r="C269" s="153" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="D269" s="20"/>
       <c r="E269" s="20"/>
@@ -9151,11 +9179,11 @@
       <c r="M269" s="119"/>
       <c r="N269" s="25"/>
     </row>
-    <row r="270" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="219"/>
-      <c r="B270" s="232"/>
+    <row r="270" spans="1:14" ht="30" customHeight="1">
+      <c r="A270" s="216"/>
+      <c r="B270" s="231"/>
       <c r="C270" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
@@ -9169,12 +9197,12 @@
       <c r="M270" s="120"/>
       <c r="N270" s="26"/>
     </row>
-    <row r="271" spans="1:14" s="185" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="220" t="s">
-        <v>111</v>
-      </c>
-      <c r="B271" s="220"/>
-      <c r="C271" s="220"/>
+    <row r="271" spans="1:14" s="184" customFormat="1" ht="30" customHeight="1">
+      <c r="A271" s="221" t="s">
+        <v>205</v>
+      </c>
+      <c r="B271" s="221"/>
+      <c r="C271" s="221"/>
       <c r="D271" s="70"/>
       <c r="E271" s="42"/>
       <c r="F271" s="42"/>
@@ -9187,15 +9215,15 @@
       <c r="M271" s="42"/>
       <c r="N271" s="45"/>
     </row>
-    <row r="272" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="218" t="s">
-        <v>174</v>
-      </c>
-      <c r="B272" s="213" t="s">
-        <v>175</v>
+    <row r="272" spans="1:14" ht="15" customHeight="1">
+      <c r="A272" s="215" t="s">
+        <v>317</v>
+      </c>
+      <c r="B272" s="211" t="s">
+        <v>318</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D272" s="71"/>
       <c r="E272" s="3"/>
@@ -9209,11 +9237,11 @@
       <c r="M272" s="136"/>
       <c r="N272" s="44"/>
     </row>
-    <row r="273" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="218"/>
-      <c r="B273" s="213"/>
+    <row r="273" spans="1:14" ht="30" customHeight="1">
+      <c r="A273" s="215"/>
+      <c r="B273" s="211"/>
       <c r="C273" s="154" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
       <c r="D273" s="20"/>
       <c r="E273" s="20"/>
@@ -9227,11 +9255,11 @@
       <c r="M273" s="147"/>
       <c r="N273" s="25"/>
     </row>
-    <row r="274" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="218"/>
-      <c r="B274" s="213"/>
+    <row r="274" spans="1:14" ht="30" customHeight="1">
+      <c r="A274" s="215"/>
+      <c r="B274" s="211"/>
       <c r="C274" s="154" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="D274" s="20"/>
       <c r="E274" s="20"/>
@@ -9245,11 +9273,11 @@
       <c r="M274" s="119"/>
       <c r="N274" s="25"/>
     </row>
-    <row r="275" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="218"/>
-      <c r="B275" s="213"/>
+    <row r="275" spans="1:14" ht="30" customHeight="1">
+      <c r="A275" s="215"/>
+      <c r="B275" s="211"/>
       <c r="C275" s="154" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="D275" s="20"/>
       <c r="E275" s="20"/>
@@ -9263,11 +9291,11 @@
       <c r="M275" s="119"/>
       <c r="N275" s="25"/>
     </row>
-    <row r="276" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="218"/>
-      <c r="B276" s="213"/>
+    <row r="276" spans="1:14" ht="30" customHeight="1">
+      <c r="A276" s="215"/>
+      <c r="B276" s="211"/>
       <c r="C276" s="154" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="D276" s="20"/>
       <c r="E276" s="20"/>
@@ -9281,11 +9309,11 @@
       <c r="M276" s="119"/>
       <c r="N276" s="25"/>
     </row>
-    <row r="277" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="218"/>
-      <c r="B277" s="213"/>
+    <row r="277" spans="1:14" ht="30" customHeight="1">
+      <c r="A277" s="215"/>
+      <c r="B277" s="211"/>
       <c r="C277" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D277" s="20"/>
       <c r="E277" s="21"/>
@@ -9299,11 +9327,11 @@
       <c r="M277" s="119"/>
       <c r="N277" s="25"/>
     </row>
-    <row r="278" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="218"/>
-      <c r="B278" s="213"/>
+    <row r="278" spans="1:14" ht="15" customHeight="1">
+      <c r="A278" s="215"/>
+      <c r="B278" s="211"/>
       <c r="C278" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D278" s="72"/>
       <c r="E278" s="2"/>
@@ -9317,11 +9345,11 @@
       <c r="M278" s="137"/>
       <c r="N278" s="8"/>
     </row>
-    <row r="279" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="218"/>
-      <c r="B279" s="213"/>
+    <row r="279" spans="1:14" ht="30" customHeight="1">
+      <c r="A279" s="215"/>
+      <c r="B279" s="211"/>
       <c r="C279" s="153" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="D279" s="20"/>
       <c r="E279" s="20"/>
@@ -9335,11 +9363,11 @@
       <c r="M279" s="119"/>
       <c r="N279" s="25"/>
     </row>
-    <row r="280" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="218"/>
-      <c r="B280" s="213"/>
+    <row r="280" spans="1:14" ht="30" customHeight="1">
+      <c r="A280" s="215"/>
+      <c r="B280" s="211"/>
       <c r="C280" s="154" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="D280" s="20"/>
       <c r="E280" s="20"/>
@@ -9353,11 +9381,11 @@
       <c r="M280" s="119"/>
       <c r="N280" s="25"/>
     </row>
-    <row r="281" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="218"/>
-      <c r="B281" s="213"/>
+    <row r="281" spans="1:14" ht="30" customHeight="1">
+      <c r="A281" s="215"/>
+      <c r="B281" s="211"/>
       <c r="C281" s="154" t="s">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
@@ -9371,11 +9399,11 @@
       <c r="M281" s="119"/>
       <c r="N281" s="25"/>
     </row>
-    <row r="282" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="218"/>
-      <c r="B282" s="214"/>
+    <row r="282" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A282" s="215"/>
+      <c r="B282" s="212"/>
       <c r="C282" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D282" s="21"/>
       <c r="E282" s="21"/>
@@ -9389,13 +9417,13 @@
       <c r="M282" s="120"/>
       <c r="N282" s="26"/>
     </row>
-    <row r="283" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="218"/>
-      <c r="B283" s="212" t="s">
-        <v>179</v>
+    <row r="283" spans="1:14" ht="15" customHeight="1">
+      <c r="A283" s="215"/>
+      <c r="B283" s="210" t="s">
+        <v>326</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D283" s="72"/>
       <c r="E283" s="2"/>
@@ -9409,11 +9437,11 @@
       <c r="M283" s="137"/>
       <c r="N283" s="8"/>
     </row>
-    <row r="284" spans="1:14" s="190" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="218"/>
-      <c r="B284" s="213"/>
+    <row r="284" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1">
+      <c r="A284" s="215"/>
+      <c r="B284" s="211"/>
       <c r="C284" s="154" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="D284" s="20"/>
       <c r="E284" s="20"/>
@@ -9427,11 +9455,11 @@
       <c r="M284" s="119"/>
       <c r="N284" s="25"/>
     </row>
-    <row r="285" spans="1:14" s="190" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="218"/>
-      <c r="B285" s="213"/>
+    <row r="285" spans="1:14" s="189" customFormat="1" ht="30" customHeight="1">
+      <c r="A285" s="215"/>
+      <c r="B285" s="211"/>
       <c r="C285" s="154" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D285" s="20"/>
       <c r="E285" s="21"/>
@@ -9445,11 +9473,11 @@
       <c r="M285" s="119"/>
       <c r="N285" s="25"/>
     </row>
-    <row r="286" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="218"/>
-      <c r="B286" s="213"/>
+    <row r="286" spans="1:14" ht="15" customHeight="1">
+      <c r="A286" s="215"/>
+      <c r="B286" s="211"/>
       <c r="C286" s="13" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D286" s="72"/>
       <c r="E286" s="2"/>
@@ -9463,11 +9491,11 @@
       <c r="M286" s="137"/>
       <c r="N286" s="8"/>
     </row>
-    <row r="287" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="218"/>
-      <c r="B287" s="213"/>
+    <row r="287" spans="1:14" ht="30" customHeight="1">
+      <c r="A287" s="215"/>
+      <c r="B287" s="211"/>
       <c r="C287" s="153" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
@@ -9481,11 +9509,11 @@
       <c r="M287" s="119"/>
       <c r="N287" s="25"/>
     </row>
-    <row r="288" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="219"/>
-      <c r="B288" s="214"/>
+    <row r="288" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A288" s="216"/>
+      <c r="B288" s="212"/>
       <c r="C288" s="155" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D288" s="21"/>
       <c r="E288" s="21"/>
@@ -9501,12 +9529,16 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B31"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B252:B254"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A64:C64"/>
@@ -9521,8 +9553,8 @@
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A185:C185"/>
     <mergeCell ref="B283:B288"/>
     <mergeCell ref="B256:B264"/>
     <mergeCell ref="B205:B212"/>
@@ -9537,8 +9569,8 @@
     <mergeCell ref="B234:B236"/>
     <mergeCell ref="B272:B282"/>
     <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="A90:A101"/>
+    <mergeCell ref="B145:B147"/>
     <mergeCell ref="B213:B220"/>
     <mergeCell ref="A255:C255"/>
     <mergeCell ref="B42:B49"/>
@@ -9553,8 +9585,8 @@
     <mergeCell ref="B153:B154"/>
     <mergeCell ref="B156:B161"/>
     <mergeCell ref="A103:A119"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="A102:C102"/>
     <mergeCell ref="A186:A244"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="F8:M8"/>
@@ -9569,8 +9601,15 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A120:C120"/>
     <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:A101"/>
-    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A142:A184"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="B129:B140"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="B125:B127"/>
     <mergeCell ref="B62:B63"/>
@@ -9578,17 +9617,6 @@
     <mergeCell ref="B90:B101"/>
     <mergeCell ref="B114:B119"/>
     <mergeCell ref="B103:B113"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A142:A184"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="B129:B140"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:M1048576">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -9639,69 +9667,69 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="55" customWidth="1"/>
     <col min="2" max="2" width="114.5703125" style="18" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="181" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="180" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="93"/>
       <c r="B1" s="94"/>
     </row>
-    <row r="2" spans="1:2" s="181" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="180" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="93"/>
       <c r="B2" s="94"/>
     </row>
-    <row r="3" spans="1:2" s="182" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="258" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="258"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="257"/>
-      <c r="B4" s="257"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="181" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="255" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="255"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="254"/>
+      <c r="B4" s="254"/>
+    </row>
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="54">
         <v>1</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="54">
         <v>3</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="54">
         <v>4</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
       <c r="A9" s="54">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
